--- a/Contacts.xlsx
+++ b/Contacts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Reforma\Reforma-Windows-Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Reforma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5060D34-A420-41FF-870F-D563EC2C6E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C5119D-C520-44EA-930C-A761A8CF5996}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="1980" windowWidth="11835" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="242">
   <si>
     <t>id</t>
   </si>
@@ -572,6 +567,192 @@
   </si>
   <si>
     <t>SCALED_WIDTH из popbodypart.h</t>
+  </si>
+  <si>
+    <t>hint1 UZ</t>
+  </si>
+  <si>
+    <t>3a - elektroddan foydalanish mohiyati radiyal qo'ldoshning (venter m.flexor carpitis radialis), qo'ldoshni yuzi to'qg'oship qo'ldoshni uchlabga keltiruvchi o'lchamlilardan (m.digitorum superfacialis), qo'ldoshni chuqurlashtiruvchi o'lchamlilardan (venter m.flexor digitorum profundus) markaziy chiziqda, qo'ynlarning 2-3 sm pastida joylashgan.</t>
+  </si>
+  <si>
+    <t>1a - elektroddan foydalanish mohiyati qo'shma qo'ldoshning proksimal qismida (caput breve m.bicepitis brachii) uning tendoniga o'tkazilish joyi (tendo caput breve m.bicepitis brachii) markaziy chiziqda, deltoid va qo'shma qo'ldoshning yaratgan jarozasi (deltoid va qo'shma qo'ldosh) qo'shma qo'ldoshining 1-1,5 sm pastida joylashgan.</t>
+  </si>
+  <si>
+    <t>2a - elektroddan foydalanish mohiyati deltoid o'lchamlarning distal qismida (venter m.deltoideus) markaziy chiziqda, unda markaziy o'lchamning 2-2,5 sm yuqorisida joylashgan.</t>
+  </si>
+  <si>
+    <t>2b - elektroddan foydalanish mohiyati katta ko'krak qo'ldoshning (mm.pectoralis major) proksimal qismida, klyuchka mediastinaligi ortig'ida 1-1,5 sm pastda va o'ng yon shim tog'ining 1-1,5 sm chiqqan joyida joylashgan.</t>
+  </si>
+  <si>
+    <t>4a - elektroddan foydalanish mohiyati yelkasim o'lchamning yuqori qismida (m.rectus abdominis) diafragma maydonida, unda uning 3-4 sm pastida va yelkador chiziq maydonning 1,5-2 sm chap joylashgan.</t>
+  </si>
+  <si>
+    <t>3d - elektroddan foydalanish mohiyati qo'shma qo'ldoshning tendoniga (m.extensor carpi ulnaris), radiyal qo'ldoshni uzatuvchisi (m.extensor carpi radialis), barmoq uzatuvchisini (m.extensor digitorum) markaziy chiziqda, radiyal qo'ldosh bo'ynida 3-4 sm yuqorisida joylashgan.</t>
+  </si>
+  <si>
+    <t>1d - elektroddan foydalanish mohiyati qo'shma qo'ldoshni tendonida (tendo m.tricepitis brachii) markaziy chiziqda, qo'lni 2-3 sm yuqorisida joylashgan.</t>
+  </si>
+  <si>
+    <t>1c - elektroddan foydalanish mohiyati qo'shma qo'ldoshning uzatuvchi barmoqning (caput longum m.tricepitis brachii) markaziy chiziqda, uzatilgan qo'ldoshning uzatuvchi barmoqi va orqasidagi deltoid jarozasi (caput longum m.tricepitis brachii) 1-1,5 sm pastda joylashgan.</t>
+  </si>
+  <si>
+    <t>2с - elektroddan foydalanish mohiyati qo'ldosh va qo'shma qo'ldoshning uzatuvchi qismidagi trapez kasalligining (m.trapezius) yelka qismida, 2-3 sm yon tomon.</t>
+  </si>
+  <si>
+    <t>4c - elektroddan foydalanish mohiyati pastki qismida yotadigan trapez kasalligining (m.trapezius) yelka va orqasidagi poyabzalni qo'zg'aydigan o'rta barmoqning (m.erector spine) u qismidagi: uzunish yo'lak kasalligini (m.longissimus) 2-3 sm o'ngda joylashgan.</t>
+  </si>
+  <si>
+    <t>4d - elektroddan foydalanish mohiyati poyabzalni qo'zg'aydigan o'rta barmoqning (m.erector spine), u qismidagi: uzunish yo'lak kasalligini (m.longissimus), qoshamio'rbo'yoqli kasalligini (m.iliocostalis) poyabzalda, LII -LIII darajasining 3-4 sm yon tomon joylashgan.</t>
+  </si>
+  <si>
+    <t>3b - elektroddan foydalanish mohiyati qo'shma qo'ldoshni tendoniga (m.palmaris longus), radiyal qo'ldoshni yengillashtiruvchi (m.flexor carpi radialis), yuzi yengillashtiruvchi (m.digitorum superfacialis), barmoq yengillashtiruvchi o'lchamlardan (venter m.flexor digitorum profundus), ulnarni qo'ldoshni yengillashtiruvchi (m.flexor carpi ulnaris) markaziy chiziqda, radiyal qo'ldosh bo'ynida 4-4,5 sm yuqorisida joylashgan.</t>
+  </si>
+  <si>
+    <t>1a - elektroddan foydalanish mohiyati qo'shma qo'ldoshning proksimal qismida (caput breve m.bicepitis brachii) uning tendoniga o'tkazilish joyi (tendo caput breve m.bicepitis brachii) markaziy chiziqda, deltoid va qo'shma qo'ldoshning yaratgan jarozasi (deltoid va qo'shma qo'ldosh) qo'shma qo'ldoshining 1-1,5 sm pastda joylashgan.</t>
+  </si>
+  <si>
+    <t>2b - elektroddan foydalanish mohiyati katta ko'krak qo'ldoshning (mm.pectoralis major) proksimal qismida, klyuchka mediastinaligi ortig'ida 1-1,5 sm pastda va chap yon shim tog'ining 1,1,5 sm chiqqan joyida joylashgan.</t>
+  </si>
+  <si>
+    <t>4a - elektroddan foydalanish mohiyati yelkasim o'lchamning yuqori qismida (m.rectus abdominis) diafragma maydonida, unda uning 3-4 sm pastda va yelkador chiziq maydonning 1,5-2 sm chap joylashgan.</t>
+  </si>
+  <si>
+    <t>3d - elektroddan foydalanish mohiyati qo'shma qo'ldoshni tendoniga (m.extensor carpi ulnaris), radiyal qo'ldoshni yengillashtiruvchi (m.extensor carpi radialis), barmoq yengillashtiruvchi (m.extensor digitorum) markaziy chiziqda, radiyal qo'ldosh bo'ynida 3-4 sm yuqorisida joylashgan.</t>
+  </si>
+  <si>
+    <t>4c - elektroddan foydalanish mohiyati pastki qismida yotadigan trapez kasalligining (m.trapezius) yelka va orqasidagi poyabzalni qo'zg'aydigan o'rta barmoqning (m.erector spine) u qismidagi: uzunish yo'lak kasalligini (m.longissimus) 2-3 sm chapda joylashgan.</t>
+  </si>
+  <si>
+    <t>4d - elektroddan foydalanish mohiyati poyabzalni qo'zg'aydigan o'rta barmoqning (m.erector spine) pastki qismida, unda uzunish yo'lak kasalligini (m.longissimus), iliokostalis kasalligini (m.iliocostalis) poyabzalda, LII -LIII darajasining 3-4 sm yon tomon joylashgan.</t>
+  </si>
+  <si>
+    <t>1c - elektroddan foydalanish mohiyati uzatilgan qo'shma qo'ldoshning uzatuvchi barmoqi (caput longum m.tricepitis brachii) markaziy chiziqda, yengil qo'shma qo'ldoshning yaratgan jarozasi va orqasidagi deltoid kasalligini (caput longum m.tricepitis brachii) 1-1,5 sm pastda joylashgan.</t>
+  </si>
+  <si>
+    <t>5a - elektroddan foydalanish mohiyati butning teri (m.sartorius) yuqori oldingi iliak kismiga (spina iliaca anteror superior dextra) o'ng tomondan bog'lab, qo'shni qiymalashtiruvchi barmoqi (m.quadriceps femoris, m.rectus femoris) yuqori oldingi iliak kismiga (spina iliaca anteror inferior dextra) 2 sm pastda joylashgan.</t>
+  </si>
+  <si>
+    <t>7a - elektroddan foydalanish mohiyati butning yon-dorsoqli qismini yuqori uchlikda joylashgan, yon oq ko'kraq qo'ldoshi (m.vastus lateralis)da.</t>
+  </si>
+  <si>
+    <t>6a - elektroddan foydalanish mohiyati qo'shni kasalligini (venter m.adductor magnus) ichki yuzidan 3 sm yon tomon va erta suzgan kemik pastida joylashgan.</t>
+  </si>
+  <si>
+    <t>8a - elektroddan foydalanish mohiyati oldingi tibbiy yelkada (venter m.tibialis anterior) o'rta chiziqdan 1-1,5 sm yon tomon, va nizdoshqadamdan 2-3 sm pastda joylashgan.</t>
+  </si>
+  <si>
+    <t>5c - elektroddan foydalanish mohiyati yuqori yelkasim kasalligini (m.gluteus maximus) ichki sochining ortidan 2-3 sm yon tomon joylashgan.</t>
+  </si>
+  <si>
+    <t>6c - elektroddan foydalanish mohiyati o'rtacha yelkasim kasalligini (m.gluteus medius) o'ng tomonli yon chizigi osti qismida, sochining crestasidan 2-3 sm pastda joylashgan.</t>
+  </si>
+  <si>
+    <t>7c - elektroddan foydalanish mohiyati uzatilgan butning uzun yelkasi barmoqning (venter caput longum m.biceps femori), yarim-yonarq qo'shni barmoqi (venter m.semitendinosus) ichki qo'shni qavati pastida, yag'oya yozuvi ostidan 2-3 sm pastda joylashgan.</t>
+  </si>
+  <si>
+    <t>8c - elektroddan foydalanish mohiyati yelkasim kasalligini (m.gastrocnemius) shaklga kelgan joyida, pastki oyoq yopg'oni (fossa poplitea) ostidan 3-4 sm pastda joylashgan.</t>
+  </si>
+  <si>
+    <t>5a - elektroddan foydalanish mohiyati butning teri (m.sartorius) yuqori oldingi iliak kismiga (spina iliaca anteror superior sinistra) chap tomondan bog'lab, qo'shni qiymalashtiruvchi barmoqi (m.quadriceps femoris, m.rectus femoris) yuqori oldingi iliak kismiga (spina iliaca anteror inferior sinistra) o'ng tomondan bog'lab, 2 sm pastda joylashgan.</t>
+  </si>
+  <si>
+    <t>6b - elektroddan foydalanish mohiyati qo'shni kasalligini (venter m.adductor magnus) ichki yuzidan pastki oyoqning yuqori qismiga 3-4 sm pastda, kemalari markazidan 3-4 sm yuqori joylashgan.</t>
+  </si>
+  <si>
+    <t>8b - elektroddan foydalanish mohiyati oldingi tibbiy yelkani (m.tibialis anterior) poyabzalga o'tish joyida, pastki oyoqning 1/3 qismidan, markaziy chiziq bo'yicha joylashgan.</t>
+  </si>
+  <si>
+    <t>6c - elektroddan foydalanish mohiyati o'rtacha yelkasim kasalligini (m.gluteus medius) ichki sochining crestasidan 2-3 sm pastda, yon yelkasimning markaziy chiziq bo'yicha joylashgan.</t>
+  </si>
+  <si>
+    <t>hint2 UZ</t>
+  </si>
+  <si>
+    <t>3b - Elektrod past barmoqning uzatilish qismi (m.palmaris longus), radiusli barmoqning suhoyili qismi (m.flexor carpi radialis), barmoqning yuzma yuqori suhoyili qismi (m.digitorum superfacialis), qo'shni barmoqning ichki yuzining suhoyili qismi (venter m.flexor digitorum profundus), qo'shni qo'llashning uzatilish qismi (m.flexor carpi ulnaris) o'tish joyida, markaziy chiziq bo'yicha, luchezapast barmoqning suhoyili qismi yuzidan 4-4,5 sm yuqoriga joylashgan.</t>
+  </si>
+  <si>
+    <t>1b - Elektrod quydirilishning uzatilish qismi (venter m.biceps brachii) uning suvchilikka o'tkazilgandagi suvchilik (tendo m.biceps brachii) markaziy chiziq bo'yicha, o'lta qo'llashning suvchiligi yuzidan 1-1,5 sm yuqoriga joylashgan (fossa cubitalis).</t>
+  </si>
+  <si>
+    <t>2b - Elektrod katta chuchuk kasalligining quyidagi qismini (mm.pectoralis major), markaziy chiziqdan 1-1,5 sm pastda va o'ng tomonida 1,1,5 sm tashqarida joylashgan, markaziy chiziqdan.</t>
+  </si>
+  <si>
+    <t>2с - Elektrod kattalashtirilgan to'lqin kasalligining yuqori qismida (m.trapezius) paravertebral, markaziy chiziqdan 2-3 sm yon tomon joylashgan.</t>
+  </si>
+  <si>
+    <t>4b - Elektrod to'rtburchak kasalligining pastki qismida (m.rectus abdominis), yuzma yonidan 2-3 sm yon tomon joylashgan va yuqori old tomonida, past to'rtburchak kasalligining quyi orqa uchun chiziq (spina iliaca anteror superior dextra et sinistra) yordamida o'tkazilgan 3-4 sm yuqoriga joylashgan.</t>
+  </si>
+  <si>
+    <t>3c - Elektrod qo'shni qo'llashning uzatilish qismi (m.extensor carpi ulnaris), barmoqning uzatilish barmoqi (m.extensor digitorum) markaziy chiziq bo'yicha, luch to'rtburchak kasalligining uzatilish barmoqi yuzidan 3-4 sm pastda joylashgan.</t>
+  </si>
+  <si>
+    <t>1c - Elektrod quydirilishning uzun qismi (caput longum m.triceps brachii) markaziy chiziq bo'yicha, orqa tomon 1 - 1,5 sm pastda joylashgan, quydirilishning uzun qismi va orqa deltaliq kasalligining qo'llashining orasidan.</t>
+  </si>
+  <si>
+    <t>4c - Elektrod paravertebral to'rtburchak kasalligining pastki qismida (m.trapezius) va qo'riq kasalligining pastki qismida poyvazhni o'ziga islohotlangan qismi (m.erector spine) uning uzun qismi (m.longissimus) o'ng tomonidan 2-3 sm joylashgan.</t>
+  </si>
+  <si>
+    <t>4d - Elektrod quydirilishning pastki qismi (m.erector spine), uning uzun qismi (m.longissimus), poyvazhni kabobli kasalligining pastki qismi (m.iliocostalis) paravertebral, LII-LIII darajada 3-4 sm yon tomon joylashgan.</t>
+  </si>
+  <si>
+    <t>5c - Elektrod katta yovuz kasalligining yuqori qismida (m.gluteus maximus) markaziy chiziqdan 2 - 3 sm yon tomon joylashgan.</t>
+  </si>
+  <si>
+    <t>3a - Elektrod past barmoqning uzatilish qismi (venter m.flexor carpitis radialis), barmoqning yuzma suhoyili qismi (m.digitorum superfacialis), barmoqning ichki yuzining suhoyili qismi (venter m.flexor digitorum profundus) markaziy chiziq bo'yicha, luch to'rtburchak kasalligining pastki qismi yuzidan 2-3 sm pastda joylashgan.</t>
+  </si>
+  <si>
+    <t>2b - Elektrod katta chuchuk kasalligining quyidagi qismini (mm.pectoralis major), markaziy chiziqdan 1-1,5 sm pastda va chap tomonidan 1,1,5 sm tashqarida joylashgan.</t>
+  </si>
+  <si>
+    <t>2c - Elektrod kattalashtirilgan to'lqin kasalligining yuqori qismida (m.trapezius) paravertebral, markaziy chiziqdan 2-3 sm yon tomon joylashgan.</t>
+  </si>
+  <si>
+    <t>4b - Elektrod to'rtburchak kasalligining pastki qismida (m.rectus abdominis), yuzma yonidan 2-3 sm yon tomon joylashgan va yuqori old tomonida, past to'rtburchak kasalligining markaziy chiziqdan 3-4 sm yuqoriga joylashgan, qo'riq tomonidan, yuqori old tomonida o'tkazilgan shakar ostlaridan (spina iliaca anteror superior dextra et sinistra) yordamida.</t>
+  </si>
+  <si>
+    <t>1d - Elektrod quydirilishning uzatilish qismi (tendo m.triceps brachii) markaziy chiziq bo'yicha, orqa tomon 2-3 sm yuqoriga joylashgan, quydirilishning uzatilish qismi.</t>
+  </si>
+  <si>
+    <t>2a - Elektrod quydirilishning uzatilish qismi (venter m.deltoideus) markaziy chiziq bo'yicha, front plandagi markaziy chiziqdan 2-2,5 sm yuqoriga joylashgan.</t>
+  </si>
+  <si>
+    <t>5c - Elektrod katta yovuz kasalligining yuqori qismida (m.gluteus maximus) podvzdochnoy kostoning kamchiq chizig'iga 2 - 3 sm yon tomon joylashgan.</t>
+  </si>
+  <si>
+    <t>7b - Elektrod markaziy chiziq bo'yicha, uchburchak to'rtburchak kasalligining pastki qismidan yuqori yoritilish qismiga o'tkazilgandagi o'tkazish joyida (m.quadriceps femoris), butun uzunligining 1/3 qismida.</t>
+  </si>
+  <si>
+    <t>6b - Elektrod katta ichki kasalligining kamchiq chizig'iga (venter m.adductor magnus) ichki tarafdan past qismida, qo'rg'oshining ichki tarafidan 3-4 sm yuqori, butun ichki kasalligining maydalashish joyidan (epicondylus medialis).</t>
+  </si>
+  <si>
+    <t>8b - Elektrod quydirilishning pastki qismi (m.tibialis anterior) suvchilikning uzun qismidan suvchilikka o'tkazilgandagi o'tkazish joyida, ostki yoritilishning 1/3 qismida markaziy chiziq bo'yicha joylashgan.</t>
+  </si>
+  <si>
+    <t>6d - Elektrod markaziy chiziq bo'yicha, o'rtacha yovuz kasalligining suvchilikga o'tkazilgandagi joyiga (tendo m.glutei medii) butun vertekal yuqori tomonidan joylashgan (trochanter major).</t>
+  </si>
+  <si>
+    <t>7c - Elektrod quydirilishning uzun qismi (venter caput longum m.biceps femoris), yorug'lik kasalligining qo'shni suvchilik kasalligining uzun qismi (venter m.semitendinosus) to'rtburchak kasalligining pastki qismi bilan yuqori ichki qo'llashning kesishma joyidan 2 - 3 sm pastda joylashgan.</t>
+  </si>
+  <si>
+    <t>7d - Elektrod yovuz kasalligining uzatilish qismi (caput longum m.biceps femoris), qo'shni suvchilikning uzatilish qismi (m.semitendinosus) markaziy chiziq bo'yicha, past qo'riq qismidan 4-5 sm yuqoriga joylashgan (fossa poplitea).</t>
+  </si>
+  <si>
+    <t>8d - Elektrod suvchilikning uchburchak to'rtburchak kasalligining pastki qismidan (m.triceps surae) achil sivishiga o'tkazilgandagi joyida (tendo calcaneus (Achillis)), pastki suvchilikning 1/3 qismida joylashgan.</t>
+  </si>
+  <si>
+    <t>7b - Elektrod markaziy chiziq bo'yicha, uchburchak to'rtburchak kasalligining pastki qismidan yuqori yoritilish qismiga o'tkazilgandagi joyida (m.quadriceps femoris), butun uzunligining 1/3 qismida.</t>
+  </si>
+  <si>
+    <t>6b - Elektrod katta ichki kasalligining kamchiq chizig'iga (venter m.adductor magnus) ichki tarafdan past qismida, qo'rg'oshining ichki tarafdan 3-4 sm yuqori, butun ichki kasalligining maydalashish joyidan (epicondylus medialis).</t>
+  </si>
+  <si>
+    <t>7a - Elektrod yuqori uchtomlig'ining shimoliy orqa qismida, shimoliy keng to'rtburchak kasalligining yuqori qismida (m.vastus lateralis).</t>
+  </si>
+  <si>
+    <t>8a - Elektrod old yorug'lig'ining kamchiq chizig'ida (venter m.tibialis anterior), butun ichki kasalligining markaziy chiziqdan 1 - 1,5 sm yon tomon joylashgan, quydirilishning markaziy chiziqdan esa 2 - 3 sm pastda joylashgan.</t>
+  </si>
+  <si>
+    <t>7c - Elektrod quydirilishning uzun qismi (venter caput longum m.biceps femori), qo'shni suvchilikning uzatilish qismi (venter m.semitendinosus), yuqori ichki qo'llashning kesishma joyidan 2 - 3 sm pastda joylashgan.</t>
   </si>
 </sst>
 </file>
@@ -1438,10 +1619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL41"/>
+  <dimension ref="A1:AN87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N6" workbookViewId="0">
-      <selection activeCell="AI33" sqref="AI33"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1449,7 +1630,7 @@
     <col min="28" max="28" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:40">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1496,37 +1677,43 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
+        <v>212</v>
+      </c>
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:40">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1555,19 +1742,19 @@
         <v>410</v>
       </c>
       <c r="J2">
-        <f>ROUND($AB$2/$AB$3*AC2,0)</f>
+        <f>ROUND($AD$2/$AD$3*AE2,0)</f>
         <v>641</v>
       </c>
       <c r="K2">
-        <f>ROUND($AB$2/$AB$3*AD2,0)</f>
+        <f>ROUND($AD$2/$AD$3*AF2,0)</f>
         <v>124</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:M2" si="0">ROUND($AB$2/$AB$3*AE2,0)</f>
+        <f>ROUND($AD$2/$AD$3*AG2,0)</f>
         <v>540</v>
       </c>
       <c r="M2">
-        <f t="shared" si="0"/>
+        <f>ROUND($AD$2/$AD$3*AH2,0)</f>
         <v>450</v>
       </c>
       <c r="N2" t="s">
@@ -1576,60 +1763,66 @@
       <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="P2">
-        <f>ROUND($AB$2/$AB$3*AG2,0)</f>
+      <c r="P2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q2">
+        <f>ROUND($AD$2/$AD$3*AI2,0)</f>
         <v>304</v>
       </c>
-      <c r="Q2">
-        <f>ROUND($AB$2/$AB$3*AH2,0)</f>
+      <c r="R2">
+        <f>ROUND($AD$2/$AD$3*AJ2,0)</f>
         <v>180</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>29</v>
       </c>
-      <c r="T2">
-        <f>ROUND($AB$2/$AB$3*AK2,0)</f>
+      <c r="U2" t="s">
+        <v>213</v>
+      </c>
+      <c r="V2">
+        <f>ROUND($AD$2/$AD$3*AM2,0)</f>
         <v>304</v>
       </c>
-      <c r="U2">
-        <f>ROUND($AB$2/$AB$3*AL2,0)</f>
+      <c r="W2">
+        <f>ROUND($AD$2/$AD$3*AN2,0)</f>
         <v>248</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>30</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>450</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>570</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>110</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>480</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>400</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>270</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>160</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <v>270</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:40">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1658,19 +1851,19 @@
         <v>290</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J41" si="1">ROUND($AB$2/$AB$3*AC3,0)</f>
+        <f>ROUND($AD$2/$AD$3*AE3,0)</f>
         <v>698</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K41" si="2">ROUND($AB$2/$AB$3*AD3,0)</f>
+        <f>ROUND($AD$2/$AD$3*AF3,0)</f>
         <v>68</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L41" si="3">ROUND($AB$2/$AB$3*AE3,0)</f>
+        <f>ROUND($AD$2/$AD$3*AG3,0)</f>
         <v>608</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M41" si="4">ROUND($AB$2/$AB$3*AF3,0)</f>
+        <f>ROUND($AD$2/$AD$3*AH3,0)</f>
         <v>450</v>
       </c>
       <c r="N3" t="s">
@@ -1679,60 +1872,66 @@
       <c r="O3" t="s">
         <v>34</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P41" si="5">ROUND($AB$2/$AB$3*AG3,0)</f>
+      <c r="P3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q3">
+        <f>ROUND($AD$2/$AD$3*AI3,0)</f>
         <v>304</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q41" si="6">ROUND($AB$2/$AB$3*AH3,0)</f>
+      <c r="R3">
+        <f>ROUND($AD$2/$AD$3*AJ3,0)</f>
         <v>124</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>35</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>36</v>
       </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T41" si="7">ROUND($AB$2/$AB$3*AK3,0)</f>
+      <c r="U3" t="s">
+        <v>214</v>
+      </c>
+      <c r="V3">
+        <f>ROUND($AD$2/$AD$3*AM3,0)</f>
         <v>304</v>
       </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U41" si="8">ROUND($AB$2/$AB$3*AL3,0)</f>
+      <c r="W3">
+        <f>ROUND($AD$2/$AD$3*AN3,0)</f>
         <v>281</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>37</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>400</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>620</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>60</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>540</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>400</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>270</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>110</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>270</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:40">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1761,19 +1960,19 @@
         <v>190</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE4,0)</f>
         <v>506</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF4,0)</f>
         <v>191</v>
       </c>
       <c r="L4">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG4,0)</f>
         <v>855</v>
       </c>
       <c r="M4">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH4,0)</f>
         <v>326</v>
       </c>
       <c r="N4" t="s">
@@ -1782,57 +1981,63 @@
       <c r="O4" t="s">
         <v>41</v>
       </c>
-      <c r="P4">
-        <f t="shared" si="5"/>
+      <c r="P4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q4">
+        <f>ROUND($AD$2/$AD$3*AI4,0)</f>
         <v>304</v>
       </c>
-      <c r="Q4">
-        <f t="shared" si="6"/>
+      <c r="R4">
+        <f>ROUND($AD$2/$AD$3*AJ4,0)</f>
         <v>90</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>42</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>43</v>
       </c>
-      <c r="T4">
-        <f t="shared" si="7"/>
+      <c r="U4" t="s">
+        <v>215</v>
+      </c>
+      <c r="V4">
+        <f>ROUND($AD$2/$AD$3*AM4,0)</f>
         <v>304</v>
       </c>
-      <c r="U4">
-        <f t="shared" si="8"/>
+      <c r="W4">
+        <f>ROUND($AD$2/$AD$3*AN4,0)</f>
         <v>360</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>44</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>450</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>170</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>760</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>290</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>270</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>80</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <v>270</v>
       </c>
-      <c r="AL4">
+      <c r="AN4">
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:40">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1861,19 +2066,19 @@
         <v>145</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE5,0)</f>
         <v>821</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF5,0)</f>
         <v>439</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG5,0)</f>
         <v>743</v>
       </c>
       <c r="M5">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH5,0)</f>
         <v>186</v>
       </c>
       <c r="N5" t="s">
@@ -1882,65 +2087,71 @@
       <c r="O5" t="s">
         <v>43</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="5"/>
+      <c r="P5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5">
+        <f>ROUND($AD$2/$AD$3*AI5,0)</f>
         <v>304</v>
       </c>
-      <c r="Q5">
-        <f t="shared" si="6"/>
+      <c r="R5">
+        <f>ROUND($AD$2/$AD$3*AJ5,0)</f>
         <v>281</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>46</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>47</v>
       </c>
-      <c r="T5">
-        <f t="shared" si="7"/>
+      <c r="U5" t="s">
+        <v>216</v>
+      </c>
+      <c r="V5">
+        <f>ROUND($AD$2/$AD$3*AM5,0)</f>
         <v>304</v>
       </c>
-      <c r="U5">
-        <f t="shared" si="8"/>
+      <c r="W5">
+        <f>ROUND($AD$2/$AD$3*AN5,0)</f>
         <v>219</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>48</v>
       </c>
-      <c r="W5">
-        <f>ROUND($AB$2/$AB$3*AI6,0)</f>
+      <c r="Y5">
+        <f>ROUND($AD$2/$AD$3*AK6,0)</f>
         <v>608</v>
       </c>
-      <c r="X5">
-        <f>ROUND($AB$2/$AB$3*AJ6,0)</f>
+      <c r="Z5">
+        <f>ROUND($AD$2/$AD$3*AL6,0)</f>
         <v>257</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>730</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>390</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>660</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>165</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>270</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>250</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>270</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:40">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1969,19 +2180,19 @@
         <v>400</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE6,0)</f>
         <v>855</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF6,0)</f>
         <v>169</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG6,0)</f>
         <v>855</v>
       </c>
       <c r="M6">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH6,0)</f>
         <v>405</v>
       </c>
       <c r="N6" t="s">
@@ -1990,71 +2201,77 @@
       <c r="O6" t="s">
         <v>52</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="5"/>
+      <c r="P6" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q6">
+        <f>ROUND($AD$2/$AD$3*AI6,0)</f>
         <v>304</v>
       </c>
-      <c r="Q6">
-        <f t="shared" si="6"/>
+      <c r="R6">
+        <f>ROUND($AD$2/$AD$3*AJ6,0)</f>
         <v>203</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>53</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>54</v>
       </c>
-      <c r="T6">
-        <f t="shared" si="7"/>
+      <c r="U6" t="s">
+        <v>217</v>
+      </c>
+      <c r="V6">
+        <f>ROUND($AD$2/$AD$3*AM6,0)</f>
         <v>304</v>
       </c>
-      <c r="U6">
-        <f t="shared" si="8"/>
+      <c r="W6">
+        <f>ROUND($AD$2/$AD$3*AN6,0)</f>
         <v>248</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>55</v>
       </c>
-      <c r="W6">
-        <f>ROUND($AB$2/$AB$3*AI7,0)</f>
+      <c r="Y6">
+        <f>ROUND($AD$2/$AD$3*AK7,0)</f>
         <v>608</v>
       </c>
-      <c r="X6">
-        <f>ROUND($AB$2/$AB$3*AJ7,0)</f>
+      <c r="Z6">
+        <f>ROUND($AD$2/$AD$3*AL7,0)</f>
         <v>232</v>
-      </c>
-      <c r="AC6">
-        <v>760</v>
-      </c>
-      <c r="AD6">
-        <v>150</v>
       </c>
       <c r="AE6">
         <v>760</v>
       </c>
       <c r="AF6">
+        <v>150</v>
+      </c>
+      <c r="AG6">
+        <v>760</v>
+      </c>
+      <c r="AH6">
         <v>360</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>270</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>180</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>540</v>
       </c>
-      <c r="AJ6">
+      <c r="AL6">
         <v>228</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>270</v>
       </c>
-      <c r="AL6">
+      <c r="AN6">
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:40">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2083,19 +2300,19 @@
         <v>340</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE7,0)</f>
         <v>338</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF7,0)</f>
         <v>439</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG7,0)</f>
         <v>309</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH7,0)</f>
         <v>124</v>
       </c>
       <c r="N7" t="s">
@@ -2104,63 +2321,69 @@
       <c r="O7" t="s">
         <v>59</v>
       </c>
-      <c r="P7">
-        <f t="shared" si="5"/>
+      <c r="P7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7">
+        <f>ROUND($AD$2/$AD$3*AI7,0)</f>
         <v>304</v>
       </c>
-      <c r="Q7">
-        <f t="shared" si="6"/>
+      <c r="R7">
+        <f>ROUND($AD$2/$AD$3*AJ7,0)</f>
         <v>281</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>60</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>61</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="7"/>
+      <c r="U7" t="s">
+        <v>218</v>
+      </c>
+      <c r="V7">
+        <f>ROUND($AD$2/$AD$3*AM7,0)</f>
         <v>304</v>
       </c>
-      <c r="U7">
-        <f t="shared" si="8"/>
+      <c r="W7">
+        <f>ROUND($AD$2/$AD$3*AN7,0)</f>
         <v>158</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>62</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>300</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>390</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>275</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>110</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>270</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>250</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>540</v>
       </c>
-      <c r="AJ7">
+      <c r="AL7">
         <v>206</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <v>270</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:40">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2189,19 +2412,19 @@
         <v>210</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE8,0)</f>
         <v>338</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF8,0)</f>
         <v>484</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG8,0)</f>
         <v>242</v>
       </c>
       <c r="M8">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH8,0)</f>
         <v>73</v>
       </c>
       <c r="N8" t="s">
@@ -2210,57 +2433,63 @@
       <c r="O8" t="s">
         <v>66</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="5"/>
+      <c r="P8" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q8">
+        <f>ROUND($AD$2/$AD$3*AI8,0)</f>
         <v>304</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="6"/>
+      <c r="R8">
+        <f>ROUND($AD$2/$AD$3*AJ8,0)</f>
         <v>360</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>67</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>68</v>
       </c>
-      <c r="T8">
-        <f t="shared" si="7"/>
+      <c r="U8" t="s">
+        <v>219</v>
+      </c>
+      <c r="V8">
+        <f>ROUND($AD$2/$AD$3*AM8,0)</f>
         <v>242</v>
       </c>
-      <c r="U8">
-        <f t="shared" si="8"/>
+      <c r="W8">
+        <f>ROUND($AD$2/$AD$3*AN8,0)</f>
         <v>107</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>69</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>300</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>430</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>215</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>65</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>270</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <v>320</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <v>215</v>
       </c>
-      <c r="AL8">
+      <c r="AN8">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:40">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2289,19 +2518,19 @@
         <v>140</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE9,0)</f>
         <v>338</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF9,0)</f>
         <v>478</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG9,0)</f>
         <v>113</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH9,0)</f>
         <v>186</v>
       </c>
       <c r="N9" t="s">
@@ -2310,57 +2539,63 @@
       <c r="O9" t="s">
         <v>68</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="5"/>
+      <c r="P9" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q9">
+        <f>ROUND($AD$2/$AD$3*AI9,0)</f>
         <v>304</v>
       </c>
-      <c r="Q9">
-        <f t="shared" si="6"/>
+      <c r="R9">
+        <f>ROUND($AD$2/$AD$3*AJ9,0)</f>
         <v>309</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>46</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>47</v>
       </c>
-      <c r="T9">
-        <f t="shared" si="7"/>
+      <c r="U9" t="s">
+        <v>216</v>
+      </c>
+      <c r="V9">
+        <f>ROUND($AD$2/$AD$3*AM9,0)</f>
         <v>113</v>
       </c>
-      <c r="U9">
-        <f t="shared" si="8"/>
+      <c r="W9">
+        <f>ROUND($AD$2/$AD$3*AN9,0)</f>
         <v>219</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>70</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <v>300</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>425</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>100</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>165</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>270</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <v>275</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <v>100</v>
       </c>
-      <c r="AL9">
+      <c r="AN9">
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:40">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2389,19 +2624,19 @@
         <v>215</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE10,0)</f>
         <v>113</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF10,0)</f>
         <v>186</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG10,0)</f>
         <v>56</v>
       </c>
       <c r="M10">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH10,0)</f>
         <v>439</v>
       </c>
       <c r="N10" t="s">
@@ -2410,65 +2645,71 @@
       <c r="O10" t="s">
         <v>47</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="5"/>
+      <c r="P10" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q10">
+        <f>ROUND($AD$2/$AD$3*AI10,0)</f>
         <v>113</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="6"/>
+      <c r="R10">
+        <f>ROUND($AD$2/$AD$3*AJ10,0)</f>
         <v>219</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>72</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>73</v>
       </c>
-      <c r="T10">
-        <f t="shared" si="7"/>
+      <c r="U10" t="s">
+        <v>220</v>
+      </c>
+      <c r="V10">
+        <f>ROUND($AD$2/$AD$3*AM10,0)</f>
         <v>90</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="8"/>
+      <c r="W10">
+        <f>ROUND($AD$2/$AD$3*AN10,0)</f>
         <v>315</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>70</v>
       </c>
-      <c r="W10">
-        <f>ROUND($AB$2/$AB$3*AI11,0)</f>
+      <c r="Y10">
+        <f>ROUND($AD$2/$AD$3*AK11,0)</f>
         <v>34</v>
       </c>
-      <c r="X10">
-        <f>ROUND($AB$2/$AB$3*AJ11,0)</f>
+      <c r="Z10">
+        <f>ROUND($AD$2/$AD$3*AL11,0)</f>
         <v>257</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <v>100</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>165</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>50</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>390</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <v>100</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <v>195</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <v>80</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:40">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2497,19 +2738,19 @@
         <v>215</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE11,0)</f>
         <v>281</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF11,0)</f>
         <v>34</v>
       </c>
       <c r="L11">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG11,0)</f>
         <v>45</v>
       </c>
       <c r="M11">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH11,0)</f>
         <v>90</v>
       </c>
       <c r="N11" t="s">
@@ -2518,71 +2759,77 @@
       <c r="O11" t="s">
         <v>41</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="5"/>
+      <c r="P11" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q11">
+        <f>ROUND($AD$2/$AD$3*AI11,0)</f>
         <v>281</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="6"/>
+      <c r="R11">
+        <f>ROUND($AD$2/$AD$3*AJ11,0)</f>
         <v>68</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>72</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>73</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="7"/>
+      <c r="U11" t="s">
+        <v>220</v>
+      </c>
+      <c r="V11">
+        <f>ROUND($AD$2/$AD$3*AM11,0)</f>
         <v>45</v>
       </c>
-      <c r="U11">
-        <f t="shared" si="8"/>
+      <c r="W11">
+        <f>ROUND($AD$2/$AD$3*AN11,0)</f>
         <v>124</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>74</v>
       </c>
-      <c r="W11">
-        <f>ROUND($AB$2/$AB$3*AI12,0)</f>
+      <c r="Y11">
+        <f>ROUND($AD$2/$AD$3*AK12,0)</f>
         <v>79</v>
       </c>
-      <c r="X11">
-        <f>ROUND($AB$2/$AB$3*AJ12,0)</f>
+      <c r="Z11">
+        <f>ROUND($AD$2/$AD$3*AL12,0)</f>
         <v>79</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <v>250</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>30</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>40</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>80</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>250</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <v>60</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <v>30</v>
       </c>
-      <c r="AJ11">
+      <c r="AL11">
         <v>228</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <v>40</v>
       </c>
-      <c r="AL11">
+      <c r="AN11">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:40">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2611,19 +2858,19 @@
         <v>295</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE12,0)</f>
         <v>56</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF12,0)</f>
         <v>79</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG12,0)</f>
         <v>56</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH12,0)</f>
         <v>236</v>
       </c>
       <c r="N12" t="s">
@@ -2632,71 +2879,77 @@
       <c r="O12" t="s">
         <v>73</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="5"/>
+      <c r="P12" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q12">
+        <f>ROUND($AD$2/$AD$3*AI12,0)</f>
         <v>56</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="6"/>
+      <c r="R12">
+        <f>ROUND($AD$2/$AD$3*AJ12,0)</f>
         <v>113</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>76</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>77</v>
       </c>
-      <c r="T12">
-        <f t="shared" si="7"/>
+      <c r="U12" t="s">
+        <v>221</v>
+      </c>
+      <c r="V12">
+        <f>ROUND($AD$2/$AD$3*AM12,0)</f>
         <v>90</v>
       </c>
-      <c r="U12">
-        <f t="shared" si="8"/>
+      <c r="W12">
+        <f>ROUND($AD$2/$AD$3*AN12,0)</f>
         <v>203</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>78</v>
       </c>
-      <c r="W12">
-        <f t="shared" ref="W12:W14" si="9">ROUND($AB$2/$AB$3*AI13,0)</f>
+      <c r="Y12">
+        <f>ROUND($AD$2/$AD$3*AK13,0)</f>
         <v>34</v>
       </c>
-      <c r="X12">
-        <f t="shared" ref="X12:X14" si="10">ROUND($AB$2/$AB$3*AJ13,0)</f>
+      <c r="Z12">
+        <f>ROUND($AD$2/$AD$3*AL13,0)</f>
         <v>102</v>
-      </c>
-      <c r="AC12">
-        <v>50</v>
-      </c>
-      <c r="AD12">
-        <v>70</v>
       </c>
       <c r="AE12">
         <v>50</v>
       </c>
       <c r="AF12">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="AG12">
         <v>50</v>
       </c>
       <c r="AH12">
+        <v>210</v>
+      </c>
+      <c r="AI12">
+        <v>50</v>
+      </c>
+      <c r="AJ12">
         <v>100</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <v>70</v>
       </c>
-      <c r="AJ12">
+      <c r="AL12">
         <v>70</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
         <v>80</v>
       </c>
-      <c r="AL12">
+      <c r="AN12">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:40">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2725,19 +2978,19 @@
         <v>380</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE13,0)</f>
         <v>56</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF13,0)</f>
         <v>236</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG13,0)</f>
         <v>56</v>
       </c>
       <c r="M13">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH13,0)</f>
         <v>439</v>
       </c>
       <c r="N13" t="s">
@@ -2746,71 +2999,77 @@
       <c r="O13" t="s">
         <v>77</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="5"/>
+      <c r="P13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q13">
+        <f>ROUND($AD$2/$AD$3*AI13,0)</f>
         <v>90</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="6"/>
+      <c r="R13">
+        <f>ROUND($AD$2/$AD$3*AJ13,0)</f>
         <v>203</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>80</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>81</v>
       </c>
-      <c r="T13">
-        <f t="shared" si="7"/>
+      <c r="U13" t="s">
+        <v>222</v>
+      </c>
+      <c r="V13">
+        <f>ROUND($AD$2/$AD$3*AM13,0)</f>
         <v>90</v>
       </c>
-      <c r="U13">
-        <f t="shared" si="8"/>
+      <c r="W13">
+        <f>ROUND($AD$2/$AD$3*AN13,0)</f>
         <v>360</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>78</v>
       </c>
-      <c r="W13">
-        <f t="shared" si="9"/>
+      <c r="Y13">
+        <f>ROUND($AD$2/$AD$3*AK14,0)</f>
         <v>34</v>
       </c>
-      <c r="X13">
-        <f t="shared" si="10"/>
+      <c r="Z13">
+        <f>ROUND($AD$2/$AD$3*AL14,0)</f>
         <v>282</v>
-      </c>
-      <c r="AC13">
-        <v>50</v>
-      </c>
-      <c r="AD13">
-        <v>210</v>
       </c>
       <c r="AE13">
         <v>50</v>
       </c>
       <c r="AF13">
+        <v>210</v>
+      </c>
+      <c r="AG13">
+        <v>50</v>
+      </c>
+      <c r="AH13">
         <v>390</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <v>80</v>
       </c>
-      <c r="AH13">
+      <c r="AJ13">
         <v>180</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <v>30</v>
       </c>
-      <c r="AJ13">
+      <c r="AL13">
         <v>91</v>
       </c>
-      <c r="AK13">
+      <c r="AM13">
         <v>80</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:40">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2839,19 +3098,19 @@
         <v>330</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE14,0)</f>
         <v>833</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF14,0)</f>
         <v>450</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG14,0)</f>
         <v>731</v>
       </c>
       <c r="M14">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH14,0)</f>
         <v>124</v>
       </c>
       <c r="N14" t="s">
@@ -2860,71 +3119,77 @@
       <c r="O14" t="s">
         <v>29</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="5"/>
+      <c r="P14" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q14">
+        <f>ROUND($AD$2/$AD$3*AI14,0)</f>
         <v>304</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="6"/>
+      <c r="R14">
+        <f>ROUND($AD$2/$AD$3*AJ14,0)</f>
         <v>203</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>26</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>27</v>
       </c>
-      <c r="T14">
-        <f t="shared" si="7"/>
+      <c r="U14" t="s">
+        <v>223</v>
+      </c>
+      <c r="V14">
+        <f>ROUND($AD$2/$AD$3*AM14,0)</f>
         <v>304</v>
       </c>
-      <c r="U14">
-        <f t="shared" si="8"/>
+      <c r="W14">
+        <f>ROUND($AD$2/$AD$3*AN14,0)</f>
         <v>203</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
         <v>30</v>
       </c>
-      <c r="W14">
-        <f t="shared" si="9"/>
+      <c r="Y14">
+        <f>ROUND($AD$2/$AD$3*AK15,0)</f>
         <v>608</v>
       </c>
-      <c r="X14">
-        <f t="shared" si="10"/>
+      <c r="Z14">
+        <f>ROUND($AD$2/$AD$3*AL15,0)</f>
         <v>232</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <v>740</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <v>400</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>650</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <v>110</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <v>270</v>
       </c>
-      <c r="AH14">
+      <c r="AJ14">
         <v>180</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <v>30</v>
       </c>
-      <c r="AJ14">
+      <c r="AL14">
         <v>251</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
         <v>270</v>
       </c>
-      <c r="AL14">
+      <c r="AN14">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:40">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2953,19 +3218,19 @@
         <v>290</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE15,0)</f>
         <v>720</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF15,0)</f>
         <v>68</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG15,0)</f>
         <v>776</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH15,0)</f>
         <v>450</v>
       </c>
       <c r="N15" t="s">
@@ -2974,63 +3239,69 @@
       <c r="O15" t="s">
         <v>34</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="5"/>
+      <c r="P15" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q15">
+        <f>ROUND($AD$2/$AD$3*AI15,0)</f>
         <v>304</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="6"/>
+      <c r="R15">
+        <f>ROUND($AD$2/$AD$3*AJ15,0)</f>
         <v>101</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>35</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>36</v>
       </c>
-      <c r="T15">
-        <f t="shared" si="7"/>
+      <c r="U15" t="s">
+        <v>214</v>
+      </c>
+      <c r="V15">
+        <f>ROUND($AD$2/$AD$3*AM15,0)</f>
         <v>304</v>
       </c>
-      <c r="U15">
-        <f t="shared" si="8"/>
+      <c r="W15">
+        <f>ROUND($AD$2/$AD$3*AN15,0)</f>
         <v>281</v>
       </c>
-      <c r="V15" t="s">
+      <c r="X15" t="s">
         <v>86</v>
       </c>
-      <c r="AC15">
+      <c r="AE15">
         <v>640</v>
       </c>
-      <c r="AD15">
+      <c r="AF15">
         <v>60</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <v>690</v>
       </c>
-      <c r="AF15">
+      <c r="AH15">
         <v>400</v>
       </c>
-      <c r="AG15">
+      <c r="AI15">
         <v>270</v>
       </c>
-      <c r="AH15">
+      <c r="AJ15">
         <v>90</v>
       </c>
-      <c r="AI15">
+      <c r="AK15">
         <v>540</v>
       </c>
-      <c r="AJ15">
+      <c r="AL15">
         <v>206</v>
       </c>
-      <c r="AK15">
+      <c r="AM15">
         <v>270</v>
       </c>
-      <c r="AL15">
+      <c r="AN15">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:40">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3059,19 +3330,19 @@
         <v>190</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE16,0)</f>
         <v>855</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF16,0)</f>
         <v>203</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG16,0)</f>
         <v>506</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH16,0)</f>
         <v>326</v>
       </c>
       <c r="N16" t="s">
@@ -3080,57 +3351,63 @@
       <c r="O16" t="s">
         <v>41</v>
       </c>
-      <c r="P16">
-        <f t="shared" si="5"/>
+      <c r="P16" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q16">
+        <f>ROUND($AD$2/$AD$3*AI16,0)</f>
         <v>304</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="6"/>
+      <c r="R16">
+        <f>ROUND($AD$2/$AD$3*AJ16,0)</f>
         <v>90</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>89</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>90</v>
       </c>
-      <c r="T16">
-        <f t="shared" si="7"/>
+      <c r="U16" t="s">
+        <v>224</v>
+      </c>
+      <c r="V16">
+        <f>ROUND($AD$2/$AD$3*AM16,0)</f>
         <v>304</v>
       </c>
-      <c r="U16">
-        <f t="shared" si="8"/>
+      <c r="W16">
+        <f>ROUND($AD$2/$AD$3*AN16,0)</f>
         <v>360</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
         <v>91</v>
       </c>
-      <c r="AC16">
+      <c r="AE16">
         <v>760</v>
       </c>
-      <c r="AD16">
+      <c r="AF16">
         <v>180</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <v>450</v>
       </c>
-      <c r="AF16">
+      <c r="AH16">
         <v>290</v>
       </c>
-      <c r="AG16">
+      <c r="AI16">
         <v>270</v>
       </c>
-      <c r="AH16">
+      <c r="AJ16">
         <v>80</v>
       </c>
-      <c r="AK16">
+      <c r="AM16">
         <v>270</v>
       </c>
-      <c r="AL16">
+      <c r="AN16">
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:40">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3159,19 +3436,19 @@
         <v>145</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE17,0)</f>
         <v>518</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF17,0)</f>
         <v>439</v>
       </c>
       <c r="L17">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG17,0)</f>
         <v>585</v>
       </c>
       <c r="M17">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH17,0)</f>
         <v>186</v>
       </c>
       <c r="N17" t="s">
@@ -3180,57 +3457,63 @@
       <c r="O17" t="s">
         <v>90</v>
       </c>
-      <c r="P17">
-        <f t="shared" si="5"/>
+      <c r="P17" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17">
+        <f>ROUND($AD$2/$AD$3*AI17,0)</f>
         <v>304</v>
       </c>
-      <c r="Q17">
-        <f t="shared" si="6"/>
+      <c r="R17">
+        <f>ROUND($AD$2/$AD$3*AJ17,0)</f>
         <v>315</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>46</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>47</v>
       </c>
-      <c r="T17">
-        <f t="shared" si="7"/>
+      <c r="U17" t="s">
+        <v>225</v>
+      </c>
+      <c r="V17">
+        <f>ROUND($AD$2/$AD$3*AM17,0)</f>
         <v>304</v>
       </c>
-      <c r="U17">
-        <f t="shared" si="8"/>
+      <c r="W17">
+        <f>ROUND($AD$2/$AD$3*AN17,0)</f>
         <v>219</v>
       </c>
-      <c r="V17" t="s">
+      <c r="X17" t="s">
         <v>93</v>
       </c>
-      <c r="AC17">
+      <c r="AE17">
         <v>460</v>
       </c>
-      <c r="AD17">
+      <c r="AF17">
         <v>390</v>
       </c>
-      <c r="AE17">
+      <c r="AG17">
         <v>520</v>
       </c>
-      <c r="AF17">
+      <c r="AH17">
         <v>165</v>
       </c>
-      <c r="AG17">
+      <c r="AI17">
         <v>270</v>
       </c>
-      <c r="AH17">
+      <c r="AJ17">
         <v>280</v>
       </c>
-      <c r="AK17">
+      <c r="AM17">
         <v>270</v>
       </c>
-      <c r="AL17">
+      <c r="AN17">
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:40">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3259,19 +3542,19 @@
         <v>400</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE18,0)</f>
         <v>495</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF18,0)</f>
         <v>169</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG18,0)</f>
         <v>495</v>
       </c>
       <c r="M18">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH18,0)</f>
         <v>405</v>
       </c>
       <c r="N18" t="s">
@@ -3280,57 +3563,63 @@
       <c r="O18" t="s">
         <v>96</v>
       </c>
-      <c r="P18">
-        <f t="shared" si="5"/>
+      <c r="P18" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q18">
+        <f>ROUND($AD$2/$AD$3*AI18,0)</f>
         <v>304</v>
       </c>
-      <c r="Q18">
-        <f t="shared" si="6"/>
+      <c r="R18">
+        <f>ROUND($AD$2/$AD$3*AJ18,0)</f>
         <v>203</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>53</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>54</v>
       </c>
-      <c r="T18">
-        <f t="shared" si="7"/>
+      <c r="U18" t="s">
+        <v>226</v>
+      </c>
+      <c r="V18">
+        <f>ROUND($AD$2/$AD$3*AM18,0)</f>
         <v>304</v>
       </c>
-      <c r="U18">
-        <f t="shared" si="8"/>
+      <c r="W18">
+        <f>ROUND($AD$2/$AD$3*AN18,0)</f>
         <v>248</v>
       </c>
-      <c r="V18" t="s">
+      <c r="X18" t="s">
         <v>97</v>
-      </c>
-      <c r="AC18">
-        <v>440</v>
-      </c>
-      <c r="AD18">
-        <v>150</v>
       </c>
       <c r="AE18">
         <v>440</v>
       </c>
       <c r="AF18">
+        <v>150</v>
+      </c>
+      <c r="AG18">
+        <v>440</v>
+      </c>
+      <c r="AH18">
         <v>360</v>
       </c>
-      <c r="AG18">
+      <c r="AI18">
         <v>270</v>
       </c>
-      <c r="AH18">
+      <c r="AJ18">
         <v>180</v>
       </c>
-      <c r="AK18">
+      <c r="AM18">
         <v>270</v>
       </c>
-      <c r="AL18">
+      <c r="AN18">
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:40">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3359,19 +3648,19 @@
         <v>335</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE19,0)</f>
         <v>90</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF19,0)</f>
         <v>439</v>
       </c>
       <c r="L19">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG19,0)</f>
         <v>124</v>
       </c>
       <c r="M19">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH19,0)</f>
         <v>124</v>
       </c>
       <c r="N19" t="s">
@@ -3380,65 +3669,71 @@
       <c r="O19" t="s">
         <v>59</v>
       </c>
-      <c r="P19">
-        <f t="shared" si="5"/>
+      <c r="P19" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q19">
+        <f>ROUND($AD$2/$AD$3*AI19,0)</f>
         <v>90</v>
       </c>
-      <c r="Q19">
-        <f t="shared" si="6"/>
+      <c r="R19">
+        <f>ROUND($AD$2/$AD$3*AJ19,0)</f>
         <v>203</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>60</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>61</v>
       </c>
-      <c r="T19">
-        <f t="shared" si="7"/>
+      <c r="U19" t="s">
+        <v>218</v>
+      </c>
+      <c r="V19">
+        <f>ROUND($AD$2/$AD$3*AM19,0)</f>
         <v>124</v>
       </c>
-      <c r="U19">
-        <f t="shared" si="8"/>
+      <c r="W19">
+        <f>ROUND($AD$2/$AD$3*AN19,0)</f>
         <v>203</v>
       </c>
-      <c r="V19" t="s">
+      <c r="X19" t="s">
         <v>62</v>
       </c>
-      <c r="W19">
-        <f>ROUND($AB$2/$AB$3*AI20,0)</f>
+      <c r="Y19">
+        <f>ROUND($AD$2/$AD$3*AK20,0)</f>
         <v>34</v>
       </c>
-      <c r="X19">
-        <f>ROUND($AB$2/$AB$3*AJ20,0)</f>
+      <c r="Z19">
+        <f>ROUND($AD$2/$AD$3*AL20,0)</f>
         <v>226</v>
       </c>
-      <c r="AC19">
+      <c r="AE19">
         <v>80</v>
       </c>
-      <c r="AD19">
+      <c r="AF19">
         <v>390</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <v>110</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <v>110</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <v>80</v>
       </c>
-      <c r="AH19">
+      <c r="AJ19">
         <v>180</v>
       </c>
-      <c r="AK19">
+      <c r="AM19">
         <v>110</v>
       </c>
-      <c r="AL19">
+      <c r="AN19">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:40">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3467,19 +3762,19 @@
         <v>300</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE20,0)</f>
         <v>191</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF20,0)</f>
         <v>73</v>
       </c>
       <c r="L20">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG20,0)</f>
         <v>113</v>
       </c>
       <c r="M20">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH20,0)</f>
         <v>484</v>
       </c>
       <c r="N20" t="s">
@@ -3488,63 +3783,69 @@
       <c r="O20" t="s">
         <v>68</v>
       </c>
-      <c r="P20">
-        <f t="shared" si="5"/>
+      <c r="P20" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q20">
+        <f>ROUND($AD$2/$AD$3*AI20,0)</f>
         <v>191</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="6"/>
+      <c r="R20">
+        <f>ROUND($AD$2/$AD$3*AJ20,0)</f>
         <v>107</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>65</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>102</v>
       </c>
-      <c r="T20">
-        <f t="shared" si="7"/>
+      <c r="U20" t="s">
+        <v>227</v>
+      </c>
+      <c r="V20">
+        <f>ROUND($AD$2/$AD$3*AM20,0)</f>
         <v>113</v>
       </c>
-      <c r="U20">
-        <f t="shared" si="8"/>
+      <c r="W20">
+        <f>ROUND($AD$2/$AD$3*AN20,0)</f>
         <v>338</v>
       </c>
-      <c r="V20" t="s">
+      <c r="X20" t="s">
         <v>103</v>
       </c>
-      <c r="AC20">
+      <c r="AE20">
         <v>170</v>
       </c>
-      <c r="AD20">
+      <c r="AF20">
         <v>65</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
         <v>100</v>
       </c>
-      <c r="AF20">
+      <c r="AH20">
         <v>430</v>
       </c>
-      <c r="AG20">
+      <c r="AI20">
         <v>170</v>
       </c>
-      <c r="AH20">
+      <c r="AJ20">
         <v>95</v>
       </c>
-      <c r="AI20">
+      <c r="AK20">
         <v>30</v>
       </c>
-      <c r="AJ20">
+      <c r="AL20">
         <v>201</v>
       </c>
-      <c r="AK20">
+      <c r="AM20">
         <v>100</v>
       </c>
-      <c r="AL20">
+      <c r="AN20">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:40">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3573,19 +3874,19 @@
         <v>175</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE21,0)</f>
         <v>405</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF21,0)</f>
         <v>90</v>
       </c>
       <c r="L21">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG21,0)</f>
         <v>191</v>
       </c>
       <c r="M21">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH21,0)</f>
         <v>34</v>
       </c>
       <c r="N21" t="s">
@@ -3594,65 +3895,71 @@
       <c r="O21" t="s">
         <v>106</v>
       </c>
-      <c r="P21">
-        <f t="shared" si="5"/>
+      <c r="P21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q21">
+        <f>ROUND($AD$2/$AD$3*AI21,0)</f>
         <v>304</v>
       </c>
-      <c r="Q21">
-        <f t="shared" si="6"/>
+      <c r="R21">
+        <f>ROUND($AD$2/$AD$3*AJ21,0)</f>
         <v>124</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>40</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>41</v>
       </c>
-      <c r="T21">
-        <f t="shared" si="7"/>
+      <c r="U21" t="s">
+        <v>228</v>
+      </c>
+      <c r="V21">
+        <f>ROUND($AD$2/$AD$3*AM21,0)</f>
         <v>191</v>
       </c>
-      <c r="U21">
-        <f t="shared" si="8"/>
+      <c r="W21">
+        <f>ROUND($AD$2/$AD$3*AN21,0)</f>
         <v>68</v>
       </c>
-      <c r="V21" t="s">
+      <c r="X21" t="s">
         <v>74</v>
       </c>
-      <c r="W21">
-        <f>ROUND($AB$2/$AB$3*AI22,0)</f>
+      <c r="Y21">
+        <f>ROUND($AD$2/$AD$3*AK22,0)</f>
         <v>113</v>
       </c>
-      <c r="X21">
-        <f>ROUND($AB$2/$AB$3*AJ22,0)</f>
+      <c r="Z21">
+        <f>ROUND($AD$2/$AD$3*AL22,0)</f>
         <v>68</v>
       </c>
-      <c r="AC21">
+      <c r="AE21">
         <v>360</v>
       </c>
-      <c r="AD21">
+      <c r="AF21">
         <v>80</v>
       </c>
-      <c r="AE21">
+      <c r="AG21">
         <v>170</v>
       </c>
-      <c r="AF21">
+      <c r="AH21">
         <v>30</v>
       </c>
-      <c r="AG21">
+      <c r="AI21">
         <v>270</v>
       </c>
-      <c r="AH21">
+      <c r="AJ21">
         <v>110</v>
       </c>
-      <c r="AK21">
+      <c r="AM21">
         <v>170</v>
       </c>
-      <c r="AL21">
+      <c r="AN21">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:40">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3681,19 +3988,19 @@
         <v>140</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE22,0)</f>
         <v>349</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF22,0)</f>
         <v>478</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG22,0)</f>
         <v>304</v>
       </c>
       <c r="M22">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH22,0)</f>
         <v>186</v>
       </c>
       <c r="N22" t="s">
@@ -3702,63 +4009,69 @@
       <c r="O22" t="s">
         <v>106</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="5"/>
+      <c r="P22" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q22">
+        <f>ROUND($AD$2/$AD$3*AI22,0)</f>
         <v>304</v>
       </c>
-      <c r="Q22">
-        <f t="shared" si="6"/>
+      <c r="R22">
+        <f>ROUND($AD$2/$AD$3*AJ22,0)</f>
         <v>315</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>46</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>47</v>
       </c>
-      <c r="T22">
-        <f t="shared" si="7"/>
+      <c r="U22" t="s">
+        <v>225</v>
+      </c>
+      <c r="V22">
+        <f>ROUND($AD$2/$AD$3*AM22,0)</f>
         <v>304</v>
       </c>
-      <c r="U22">
-        <f t="shared" si="8"/>
+      <c r="W22">
+        <f>ROUND($AD$2/$AD$3*AN22,0)</f>
         <v>219</v>
       </c>
-      <c r="V22" t="s">
+      <c r="X22" t="s">
         <v>107</v>
       </c>
-      <c r="AC22">
+      <c r="AE22">
         <v>310</v>
       </c>
-      <c r="AD22">
+      <c r="AF22">
         <v>425</v>
-      </c>
-      <c r="AE22">
-        <v>270</v>
-      </c>
-      <c r="AF22">
-        <v>165</v>
       </c>
       <c r="AG22">
         <v>270</v>
       </c>
       <c r="AH22">
+        <v>165</v>
+      </c>
+      <c r="AI22">
+        <v>270</v>
+      </c>
+      <c r="AJ22">
         <v>280</v>
       </c>
-      <c r="AI22">
+      <c r="AK22">
         <v>100</v>
       </c>
-      <c r="AJ22">
+      <c r="AL22">
         <v>60</v>
       </c>
-      <c r="AK22">
+      <c r="AM22">
         <v>270</v>
       </c>
-      <c r="AL22">
+      <c r="AN22">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:40">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3787,19 +4100,19 @@
         <v>295</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE23,0)</f>
         <v>394</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF23,0)</f>
         <v>79</v>
       </c>
       <c r="L23">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG23,0)</f>
         <v>394</v>
       </c>
       <c r="M23">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH23,0)</f>
         <v>236</v>
       </c>
       <c r="N23" t="s">
@@ -3808,57 +4121,63 @@
       <c r="O23" t="s">
         <v>106</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="5"/>
+      <c r="P23" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q23">
+        <f>ROUND($AD$2/$AD$3*AI23,0)</f>
         <v>304</v>
       </c>
-      <c r="Q23">
-        <f t="shared" si="6"/>
+      <c r="R23">
+        <f>ROUND($AD$2/$AD$3*AJ23,0)</f>
         <v>113</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>76</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>77</v>
       </c>
-      <c r="T23">
-        <f t="shared" si="7"/>
+      <c r="U23" t="s">
+        <v>221</v>
+      </c>
+      <c r="V23">
+        <f>ROUND($AD$2/$AD$3*AM23,0)</f>
         <v>304</v>
       </c>
-      <c r="U23">
-        <f t="shared" si="8"/>
+      <c r="W23">
+        <f>ROUND($AD$2/$AD$3*AN23,0)</f>
         <v>270</v>
       </c>
-      <c r="V23" t="s">
+      <c r="X23" t="s">
         <v>109</v>
-      </c>
-      <c r="AC23">
-        <v>350</v>
-      </c>
-      <c r="AD23">
-        <v>70</v>
       </c>
       <c r="AE23">
         <v>350</v>
       </c>
       <c r="AF23">
+        <v>70</v>
+      </c>
+      <c r="AG23">
+        <v>350</v>
+      </c>
+      <c r="AH23">
         <v>210</v>
       </c>
-      <c r="AG23">
+      <c r="AI23">
         <v>270</v>
       </c>
-      <c r="AH23">
+      <c r="AJ23">
         <v>100</v>
       </c>
-      <c r="AK23">
+      <c r="AM23">
         <v>270</v>
       </c>
-      <c r="AL23">
+      <c r="AN23">
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:40">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3887,19 +4206,19 @@
         <v>380</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE24,0)</f>
         <v>394</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF24,0)</f>
         <v>236</v>
       </c>
       <c r="L24">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG24,0)</f>
         <v>394</v>
       </c>
       <c r="M24">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH24,0)</f>
         <v>439</v>
       </c>
       <c r="N24" t="s">
@@ -3908,57 +4227,63 @@
       <c r="O24" t="s">
         <v>77</v>
       </c>
-      <c r="P24">
-        <f t="shared" si="5"/>
+      <c r="P24" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q24">
+        <f>ROUND($AD$2/$AD$3*AI24,0)</f>
         <v>304</v>
       </c>
-      <c r="Q24">
-        <f t="shared" si="6"/>
+      <c r="R24">
+        <f>ROUND($AD$2/$AD$3*AJ24,0)</f>
         <v>270</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>80</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>81</v>
       </c>
-      <c r="T24">
-        <f t="shared" si="7"/>
+      <c r="U24" t="s">
+        <v>229</v>
+      </c>
+      <c r="V24">
+        <f>ROUND($AD$2/$AD$3*AM24,0)</f>
         <v>304</v>
       </c>
-      <c r="U24">
-        <f t="shared" si="8"/>
+      <c r="W24">
+        <f>ROUND($AD$2/$AD$3*AN24,0)</f>
         <v>281</v>
       </c>
-      <c r="V24" t="s">
+      <c r="X24" t="s">
         <v>109</v>
-      </c>
-      <c r="AC24">
-        <v>350</v>
-      </c>
-      <c r="AD24">
-        <v>210</v>
       </c>
       <c r="AE24">
         <v>350</v>
       </c>
       <c r="AF24">
+        <v>210</v>
+      </c>
+      <c r="AG24">
+        <v>350</v>
+      </c>
+      <c r="AH24">
         <v>390</v>
       </c>
-      <c r="AG24">
+      <c r="AI24">
         <v>270</v>
       </c>
-      <c r="AH24">
+      <c r="AJ24">
         <v>240</v>
       </c>
-      <c r="AK24">
+      <c r="AM24">
         <v>270</v>
       </c>
-      <c r="AL24">
+      <c r="AN24">
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:40">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3987,19 +4312,19 @@
         <v>140</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE25,0)</f>
         <v>135</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF25,0)</f>
         <v>439</v>
       </c>
       <c r="L25">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG25,0)</f>
         <v>304</v>
       </c>
       <c r="M25">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH25,0)</f>
         <v>186</v>
       </c>
       <c r="N25" t="s">
@@ -4008,57 +4333,63 @@
       <c r="O25" t="s">
         <v>68</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="5"/>
+      <c r="P25" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q25">
+        <f>ROUND($AD$2/$AD$3*AI25,0)</f>
         <v>169</v>
       </c>
-      <c r="Q25">
-        <f t="shared" si="6"/>
+      <c r="R25">
+        <f>ROUND($AD$2/$AD$3*AJ25,0)</f>
         <v>315</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>46</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>47</v>
       </c>
-      <c r="T25">
-        <f t="shared" si="7"/>
+      <c r="U25" t="s">
+        <v>225</v>
+      </c>
+      <c r="V25">
+        <f>ROUND($AD$2/$AD$3*AM25,0)</f>
         <v>304</v>
       </c>
-      <c r="U25">
-        <f t="shared" si="8"/>
+      <c r="W25">
+        <f>ROUND($AD$2/$AD$3*AN25,0)</f>
         <v>219</v>
       </c>
-      <c r="V25" t="s">
+      <c r="X25" t="s">
         <v>107</v>
       </c>
-      <c r="AC25">
+      <c r="AE25">
         <v>120</v>
       </c>
-      <c r="AD25">
+      <c r="AF25">
         <v>390</v>
       </c>
-      <c r="AE25">
+      <c r="AG25">
         <v>270</v>
       </c>
-      <c r="AF25">
+      <c r="AH25">
         <v>165</v>
       </c>
-      <c r="AG25">
+      <c r="AI25">
         <v>150</v>
       </c>
-      <c r="AH25">
+      <c r="AJ25">
         <v>280</v>
       </c>
-      <c r="AK25">
+      <c r="AM25">
         <v>270</v>
       </c>
-      <c r="AL25">
+      <c r="AN25">
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:40">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4087,19 +4418,19 @@
         <v>530</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE26,0)</f>
         <v>743</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF26,0)</f>
         <v>68</v>
       </c>
       <c r="L26">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG26,0)</f>
         <v>776</v>
       </c>
       <c r="M26">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH26,0)</f>
         <v>484</v>
       </c>
       <c r="N26" t="s">
@@ -4108,57 +4439,63 @@
       <c r="O26" t="s">
         <v>114</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="5"/>
+      <c r="P26" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q26">
+        <f>ROUND($AD$2/$AD$3*AI26,0)</f>
         <v>304</v>
       </c>
-      <c r="Q26">
-        <f t="shared" si="6"/>
+      <c r="R26">
+        <f>ROUND($AD$2/$AD$3*AJ26,0)</f>
         <v>101</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>115</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>116</v>
       </c>
-      <c r="T26">
-        <f t="shared" si="7"/>
+      <c r="U26" t="s">
+        <v>230</v>
+      </c>
+      <c r="V26">
+        <f>ROUND($AD$2/$AD$3*AM26,0)</f>
         <v>304</v>
       </c>
-      <c r="U26">
-        <f t="shared" si="8"/>
+      <c r="W26">
+        <f>ROUND($AD$2/$AD$3*AN26,0)</f>
         <v>304</v>
       </c>
-      <c r="V26" t="s">
+      <c r="X26" t="s">
         <v>117</v>
       </c>
-      <c r="AC26">
+      <c r="AE26">
         <v>660</v>
       </c>
-      <c r="AD26">
+      <c r="AF26">
         <v>60</v>
       </c>
-      <c r="AE26">
+      <c r="AG26">
         <v>690</v>
       </c>
-      <c r="AF26">
+      <c r="AH26">
         <v>430</v>
       </c>
-      <c r="AG26">
+      <c r="AI26">
         <v>270</v>
       </c>
-      <c r="AH26">
+      <c r="AJ26">
         <v>90</v>
       </c>
-      <c r="AK26">
+      <c r="AM26">
         <v>270</v>
       </c>
-      <c r="AL26">
+      <c r="AN26">
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:40">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4187,19 +4524,19 @@
         <v>620</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE27,0)</f>
         <v>731</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF27,0)</f>
         <v>304</v>
       </c>
       <c r="L27">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG27,0)</f>
         <v>844</v>
       </c>
       <c r="M27">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH27,0)</f>
         <v>484</v>
       </c>
       <c r="N27" t="s">
@@ -4208,65 +4545,71 @@
       <c r="O27" t="s">
         <v>121</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="5"/>
+      <c r="P27" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q27">
+        <f>ROUND($AD$2/$AD$3*AI27,0)</f>
         <v>304</v>
       </c>
-      <c r="Q27">
-        <f t="shared" si="6"/>
+      <c r="R27">
+        <f>ROUND($AD$2/$AD$3*AJ27,0)</f>
         <v>169</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>122</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>123</v>
       </c>
-      <c r="T27">
-        <f t="shared" si="7"/>
+      <c r="U27" t="s">
+        <v>231</v>
+      </c>
+      <c r="V27">
+        <f>ROUND($AD$2/$AD$3*AM27,0)</f>
         <v>304</v>
       </c>
-      <c r="U27">
-        <f t="shared" si="8"/>
+      <c r="W27">
+        <f>ROUND($AD$2/$AD$3*AN27,0)</f>
         <v>360</v>
       </c>
-      <c r="V27" t="s">
+      <c r="X27" t="s">
         <v>124</v>
       </c>
-      <c r="W27">
-        <f>ROUND($AB$2/$AB$3*AI28,0)</f>
+      <c r="Y27">
+        <f>ROUND($AD$2/$AD$3*AK28,0)</f>
         <v>608</v>
       </c>
-      <c r="X27">
-        <f>ROUND($AB$2/$AB$3*AJ28,0)</f>
+      <c r="Z27">
+        <f>ROUND($AD$2/$AD$3*AL28,0)</f>
         <v>339</v>
       </c>
-      <c r="AC27">
+      <c r="AE27">
         <v>650</v>
       </c>
-      <c r="AD27">
+      <c r="AF27">
         <v>270</v>
       </c>
-      <c r="AE27">
+      <c r="AG27">
         <v>750</v>
       </c>
-      <c r="AF27">
+      <c r="AH27">
         <v>430</v>
       </c>
-      <c r="AG27">
+      <c r="AI27">
         <v>270</v>
       </c>
-      <c r="AH27">
+      <c r="AJ27">
         <v>150</v>
       </c>
-      <c r="AK27">
+      <c r="AM27">
         <v>270</v>
       </c>
-      <c r="AL27">
+      <c r="AN27">
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:40">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4295,19 +4638,19 @@
         <v>620</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE28,0)</f>
         <v>855</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF28,0)</f>
         <v>214</v>
       </c>
       <c r="L28">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG28,0)</f>
         <v>844</v>
       </c>
       <c r="M28">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH28,0)</f>
         <v>473</v>
       </c>
       <c r="N28" t="s">
@@ -4316,71 +4659,77 @@
       <c r="O28" t="s">
         <v>127</v>
       </c>
-      <c r="P28">
-        <f t="shared" si="5"/>
+      <c r="P28" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q28">
+        <f>ROUND($AD$2/$AD$3*AI28,0)</f>
         <v>304</v>
       </c>
-      <c r="Q28">
-        <f t="shared" si="6"/>
+      <c r="R28">
+        <f>ROUND($AD$2/$AD$3*AJ28,0)</f>
         <v>113</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>122</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>123</v>
       </c>
-      <c r="T28">
-        <f t="shared" si="7"/>
+      <c r="U28" t="s">
+        <v>231</v>
+      </c>
+      <c r="V28">
+        <f>ROUND($AD$2/$AD$3*AM28,0)</f>
         <v>304</v>
       </c>
-      <c r="U28">
-        <f t="shared" si="8"/>
+      <c r="W28">
+        <f>ROUND($AD$2/$AD$3*AN28,0)</f>
         <v>338</v>
       </c>
-      <c r="V28" t="s">
+      <c r="X28" t="s">
         <v>128</v>
       </c>
-      <c r="W28">
-        <f>ROUND($AB$2/$AB$3*AI29,0)</f>
+      <c r="Y28">
+        <f>ROUND($AD$2/$AD$3*AK29,0)</f>
         <v>608</v>
       </c>
-      <c r="X28">
-        <f>ROUND($AB$2/$AB$3*AJ29,0)</f>
+      <c r="Z28">
+        <f>ROUND($AD$2/$AD$3*AL29,0)</f>
         <v>288</v>
       </c>
-      <c r="AC28">
+      <c r="AE28">
         <v>760</v>
       </c>
-      <c r="AD28">
+      <c r="AF28">
         <v>190</v>
       </c>
-      <c r="AE28">
+      <c r="AG28">
         <v>750</v>
       </c>
-      <c r="AF28">
+      <c r="AH28">
         <v>420</v>
       </c>
-      <c r="AG28">
+      <c r="AI28">
         <v>270</v>
       </c>
-      <c r="AH28">
+      <c r="AJ28">
         <v>100</v>
       </c>
-      <c r="AI28">
+      <c r="AK28">
         <v>540</v>
       </c>
-      <c r="AJ28">
+      <c r="AL28">
         <v>301</v>
       </c>
-      <c r="AK28">
+      <c r="AM28">
         <v>270</v>
       </c>
-      <c r="AL28">
+      <c r="AN28">
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:40">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4409,19 +4758,19 @@
         <v>805</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE29,0)</f>
         <v>596</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF29,0)</f>
         <v>68</v>
       </c>
       <c r="L29">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG29,0)</f>
         <v>630</v>
       </c>
       <c r="M29">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH29,0)</f>
         <v>405</v>
       </c>
       <c r="N29" t="s">
@@ -4430,63 +4779,69 @@
       <c r="O29" t="s">
         <v>132</v>
       </c>
-      <c r="P29">
-        <f t="shared" si="5"/>
+      <c r="P29" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q29">
+        <f>ROUND($AD$2/$AD$3*AI29,0)</f>
         <v>304</v>
       </c>
-      <c r="Q29">
-        <f t="shared" si="6"/>
+      <c r="R29">
+        <f>ROUND($AD$2/$AD$3*AJ29,0)</f>
         <v>101</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>133</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>134</v>
       </c>
-      <c r="T29">
-        <f t="shared" si="7"/>
+      <c r="U29" t="s">
+        <v>232</v>
+      </c>
+      <c r="V29">
+        <f>ROUND($AD$2/$AD$3*AM29,0)</f>
         <v>304</v>
       </c>
-      <c r="U29">
-        <f t="shared" si="8"/>
+      <c r="W29">
+        <f>ROUND($AD$2/$AD$3*AN29,0)</f>
         <v>304</v>
       </c>
-      <c r="V29" t="s">
+      <c r="X29" t="s">
         <v>135</v>
       </c>
-      <c r="AC29">
+      <c r="AE29">
         <v>530</v>
       </c>
-      <c r="AD29">
+      <c r="AF29">
         <v>60</v>
       </c>
-      <c r="AE29">
+      <c r="AG29">
         <v>560</v>
       </c>
-      <c r="AF29">
+      <c r="AH29">
         <v>360</v>
       </c>
-      <c r="AG29">
+      <c r="AI29">
         <v>270</v>
       </c>
-      <c r="AH29">
+      <c r="AJ29">
         <v>90</v>
       </c>
-      <c r="AI29">
+      <c r="AK29">
         <v>540</v>
       </c>
-      <c r="AJ29">
+      <c r="AL29">
         <v>256</v>
       </c>
-      <c r="AK29">
+      <c r="AM29">
         <v>270</v>
       </c>
-      <c r="AL29">
+      <c r="AN29">
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:40">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4515,19 +4870,19 @@
         <v>485</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE30,0)</f>
         <v>56</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF30,0)</f>
         <v>56</v>
       </c>
       <c r="L30">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG30,0)</f>
         <v>315</v>
       </c>
       <c r="M30">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH30,0)</f>
         <v>450</v>
       </c>
       <c r="N30" t="s">
@@ -4536,57 +4891,63 @@
       <c r="O30" t="s">
         <v>81</v>
       </c>
-      <c r="P30">
-        <f t="shared" si="5"/>
+      <c r="P30" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q30">
+        <f>ROUND($AD$2/$AD$3*AI30,0)</f>
         <v>56</v>
       </c>
-      <c r="Q30">
-        <f t="shared" si="6"/>
+      <c r="R30">
+        <f>ROUND($AD$2/$AD$3*AJ30,0)</f>
         <v>90</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>137</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>138</v>
       </c>
-      <c r="T30">
-        <f t="shared" si="7"/>
+      <c r="U30" t="s">
+        <v>233</v>
+      </c>
+      <c r="V30">
+        <f>ROUND($AD$2/$AD$3*AM30,0)</f>
         <v>304</v>
       </c>
-      <c r="U30">
-        <f t="shared" si="8"/>
+      <c r="W30">
+        <f>ROUND($AD$2/$AD$3*AN30,0)</f>
         <v>315</v>
       </c>
-      <c r="V30" t="s">
+      <c r="X30" t="s">
         <v>139</v>
       </c>
-      <c r="AC30">
+      <c r="AE30">
         <v>50</v>
       </c>
-      <c r="AD30">
+      <c r="AF30">
         <v>50</v>
       </c>
-      <c r="AE30">
+      <c r="AG30">
         <v>280</v>
       </c>
-      <c r="AF30">
+      <c r="AH30">
         <v>400</v>
       </c>
-      <c r="AG30">
+      <c r="AI30">
         <v>50</v>
       </c>
-      <c r="AH30">
+      <c r="AJ30">
         <v>80</v>
       </c>
-      <c r="AK30">
+      <c r="AM30">
         <v>270</v>
       </c>
-      <c r="AL30">
+      <c r="AN30">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:40">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4615,19 +4976,19 @@
         <v>500</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE31,0)</f>
         <v>225</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF31,0)</f>
         <v>68</v>
       </c>
       <c r="L31">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG31,0)</f>
         <v>158</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH31,0)</f>
         <v>439</v>
       </c>
       <c r="N31" t="s">
@@ -4636,57 +4997,63 @@
       <c r="O31" t="s">
         <v>143</v>
       </c>
-      <c r="P31">
-        <f t="shared" si="5"/>
+      <c r="P31" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q31">
+        <f>ROUND($AD$2/$AD$3*AI31,0)</f>
         <v>225</v>
       </c>
-      <c r="Q31">
-        <f t="shared" si="6"/>
+      <c r="R31">
+        <f>ROUND($AD$2/$AD$3*AJ31,0)</f>
         <v>101</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>144</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>145</v>
       </c>
-      <c r="T31">
-        <f t="shared" si="7"/>
+      <c r="U31" t="s">
+        <v>234</v>
+      </c>
+      <c r="V31">
+        <f>ROUND($AD$2/$AD$3*AM31,0)</f>
         <v>180</v>
       </c>
-      <c r="U31">
-        <f t="shared" si="8"/>
+      <c r="W31">
+        <f>ROUND($AD$2/$AD$3*AN31,0)</f>
         <v>326</v>
       </c>
-      <c r="V31" t="s">
+      <c r="X31" t="s">
         <v>146</v>
       </c>
-      <c r="AC31">
+      <c r="AE31">
         <v>200</v>
       </c>
-      <c r="AD31">
+      <c r="AF31">
         <v>60</v>
       </c>
-      <c r="AE31">
+      <c r="AG31">
         <v>140</v>
       </c>
-      <c r="AF31">
+      <c r="AH31">
         <v>390</v>
       </c>
-      <c r="AG31">
+      <c r="AI31">
         <v>200</v>
       </c>
-      <c r="AH31">
+      <c r="AJ31">
         <v>90</v>
       </c>
-      <c r="AK31">
+      <c r="AM31">
         <v>160</v>
       </c>
-      <c r="AL31">
+      <c r="AN31">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:40">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4715,19 +5082,19 @@
         <v>625</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE32,0)</f>
         <v>56</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF32,0)</f>
         <v>56</v>
       </c>
       <c r="L32">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG32,0)</f>
         <v>90</v>
       </c>
       <c r="M32">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH32,0)</f>
         <v>450</v>
       </c>
       <c r="N32" t="s">
@@ -4736,71 +5103,77 @@
       <c r="O32" t="s">
         <v>145</v>
       </c>
-      <c r="P32">
-        <f t="shared" si="5"/>
+      <c r="P32" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q32">
+        <f>ROUND($AD$2/$AD$3*AI32,0)</f>
         <v>56</v>
       </c>
-      <c r="Q32">
-        <f t="shared" si="6"/>
+      <c r="R32">
+        <f>ROUND($AD$2/$AD$3*AJ32,0)</f>
         <v>90</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>148</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>149</v>
       </c>
-      <c r="T32">
-        <f t="shared" si="7"/>
+      <c r="U32" t="s">
+        <v>235</v>
+      </c>
+      <c r="V32">
+        <f>ROUND($AD$2/$AD$3*AM32,0)</f>
         <v>90</v>
       </c>
-      <c r="U32">
-        <f t="shared" si="8"/>
+      <c r="W32">
+        <f>ROUND($AD$2/$AD$3*AN32,0)</f>
         <v>315</v>
       </c>
-      <c r="V32" t="s">
+      <c r="X32" t="s">
         <v>150</v>
       </c>
-      <c r="W32">
-        <f>ROUND($AB$2/$AB$3*AI32,0)</f>
+      <c r="Y32">
+        <f>ROUND($AD$2/$AD$3*AK32,0)</f>
         <v>34</v>
       </c>
-      <c r="X32">
-        <f>ROUND($AB$2/$AB$3*AJ32,0)</f>
+      <c r="Z32">
+        <f>ROUND($AD$2/$AD$3*AL32,0)</f>
         <v>198</v>
       </c>
-      <c r="AC32">
+      <c r="AE32">
         <v>50</v>
       </c>
-      <c r="AD32">
+      <c r="AF32">
         <v>50</v>
       </c>
-      <c r="AE32">
+      <c r="AG32">
         <v>80</v>
       </c>
-      <c r="AF32">
+      <c r="AH32">
         <v>400</v>
       </c>
-      <c r="AG32">
+      <c r="AI32">
         <v>50</v>
       </c>
-      <c r="AH32">
+      <c r="AJ32">
         <v>80</v>
       </c>
-      <c r="AI32">
+      <c r="AK32">
         <v>30</v>
       </c>
-      <c r="AJ32">
+      <c r="AL32">
         <v>176</v>
       </c>
-      <c r="AK32">
+      <c r="AM32">
         <v>80</v>
       </c>
-      <c r="AL32">
+      <c r="AN32">
         <v>280</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:40">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4829,19 +5202,19 @@
         <v>805</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE33,0)</f>
         <v>248</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF33,0)</f>
         <v>73</v>
       </c>
       <c r="L33">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG33,0)</f>
         <v>236</v>
       </c>
       <c r="M33">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH33,0)</f>
         <v>394</v>
       </c>
       <c r="N33" t="s">
@@ -4850,57 +5223,63 @@
       <c r="O33" t="s">
         <v>154</v>
       </c>
-      <c r="P33">
-        <f t="shared" si="5"/>
+      <c r="P33" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q33">
+        <f>ROUND($AD$2/$AD$3*AI33,0)</f>
         <v>248</v>
       </c>
-      <c r="Q33">
-        <f t="shared" si="6"/>
+      <c r="R33">
+        <f>ROUND($AD$2/$AD$3*AJ33,0)</f>
         <v>107</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>155</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>156</v>
       </c>
-      <c r="T33">
-        <f t="shared" si="7"/>
+      <c r="U33" t="s">
         <v>236</v>
       </c>
-      <c r="U33">
-        <f t="shared" si="8"/>
+      <c r="V33">
+        <f>ROUND($AD$2/$AD$3*AM33,0)</f>
+        <v>236</v>
+      </c>
+      <c r="W33">
+        <f>ROUND($AD$2/$AD$3*AN33,0)</f>
         <v>293</v>
       </c>
-      <c r="V33" t="s">
+      <c r="X33" t="s">
         <v>157</v>
       </c>
-      <c r="AC33">
+      <c r="AE33">
         <v>220</v>
       </c>
-      <c r="AD33">
+      <c r="AF33">
         <v>65</v>
       </c>
-      <c r="AE33">
+      <c r="AG33">
         <v>210</v>
       </c>
-      <c r="AF33">
+      <c r="AH33">
         <v>350</v>
       </c>
-      <c r="AG33">
+      <c r="AI33">
         <v>220</v>
       </c>
-      <c r="AH33">
+      <c r="AJ33">
         <v>95</v>
       </c>
-      <c r="AK33">
+      <c r="AM33">
         <v>210</v>
       </c>
-      <c r="AL33">
+      <c r="AN33">
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:40">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4929,19 +5308,19 @@
         <v>530</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE34,0)</f>
         <v>596</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF34,0)</f>
         <v>68</v>
       </c>
       <c r="L34">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG34,0)</f>
         <v>574</v>
       </c>
       <c r="M34">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH34,0)</f>
         <v>484</v>
       </c>
       <c r="N34" t="s">
@@ -4950,57 +5329,63 @@
       <c r="O34" t="s">
         <v>161</v>
       </c>
-      <c r="P34">
-        <f t="shared" si="5"/>
+      <c r="P34" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q34">
+        <f>ROUND($AD$2/$AD$3*AI34,0)</f>
         <v>304</v>
       </c>
-      <c r="Q34">
-        <f t="shared" si="6"/>
+      <c r="R34">
+        <f>ROUND($AD$2/$AD$3*AJ34,0)</f>
         <v>101</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>115</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>116</v>
       </c>
-      <c r="T34">
-        <f t="shared" si="7"/>
+      <c r="U34" t="s">
+        <v>237</v>
+      </c>
+      <c r="V34">
+        <f>ROUND($AD$2/$AD$3*AM34,0)</f>
         <v>304</v>
       </c>
-      <c r="U34">
-        <f t="shared" si="8"/>
+      <c r="W34">
+        <f>ROUND($AD$2/$AD$3*AN34,0)</f>
         <v>304</v>
       </c>
-      <c r="V34" t="s">
+      <c r="X34" t="s">
         <v>162</v>
       </c>
-      <c r="AC34">
+      <c r="AE34">
         <v>530</v>
       </c>
-      <c r="AD34">
+      <c r="AF34">
         <v>60</v>
       </c>
-      <c r="AE34">
+      <c r="AG34">
         <v>510</v>
       </c>
-      <c r="AF34">
+      <c r="AH34">
         <v>430</v>
       </c>
-      <c r="AG34">
+      <c r="AI34">
         <v>270</v>
       </c>
-      <c r="AH34">
+      <c r="AJ34">
         <v>90</v>
       </c>
-      <c r="AK34">
+      <c r="AM34">
         <v>270</v>
       </c>
-      <c r="AL34">
+      <c r="AN34">
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:40">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5029,19 +5414,19 @@
         <v>620</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE35,0)</f>
         <v>495</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF35,0)</f>
         <v>214</v>
       </c>
       <c r="L35">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG35,0)</f>
         <v>506</v>
       </c>
       <c r="M35">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH35,0)</f>
         <v>473</v>
       </c>
       <c r="N35" t="s">
@@ -5050,57 +5435,63 @@
       <c r="O35" t="s">
         <v>127</v>
       </c>
-      <c r="P35">
-        <f t="shared" si="5"/>
+      <c r="P35" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q35">
+        <f>ROUND($AD$2/$AD$3*AI35,0)</f>
         <v>304</v>
       </c>
-      <c r="Q35">
-        <f t="shared" si="6"/>
+      <c r="R35">
+        <f>ROUND($AD$2/$AD$3*AJ35,0)</f>
         <v>248</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>122</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>123</v>
       </c>
-      <c r="T35">
-        <f t="shared" si="7"/>
+      <c r="U35" t="s">
+        <v>238</v>
+      </c>
+      <c r="V35">
+        <f>ROUND($AD$2/$AD$3*AM35,0)</f>
         <v>304</v>
       </c>
-      <c r="U35">
-        <f t="shared" si="8"/>
+      <c r="W35">
+        <f>ROUND($AD$2/$AD$3*AN35,0)</f>
         <v>338</v>
       </c>
-      <c r="V35" t="s">
+      <c r="X35" t="s">
         <v>165</v>
       </c>
-      <c r="AC35">
+      <c r="AE35">
         <v>440</v>
       </c>
-      <c r="AD35">
+      <c r="AF35">
         <v>190</v>
       </c>
-      <c r="AE35">
+      <c r="AG35">
         <v>450</v>
       </c>
-      <c r="AF35">
+      <c r="AH35">
         <v>420</v>
       </c>
-      <c r="AG35">
+      <c r="AI35">
         <v>270</v>
       </c>
-      <c r="AH35">
+      <c r="AJ35">
         <v>220</v>
       </c>
-      <c r="AK35">
+      <c r="AM35">
         <v>270</v>
       </c>
-      <c r="AL35">
+      <c r="AN35">
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:40">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5129,19 +5520,19 @@
         <v>525</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE36,0)</f>
         <v>506</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF36,0)</f>
         <v>484</v>
       </c>
       <c r="L36">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG36,0)</f>
         <v>624</v>
       </c>
       <c r="M36">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH36,0)</f>
         <v>304</v>
       </c>
       <c r="N36" t="s">
@@ -5150,57 +5541,63 @@
       <c r="O36" t="s">
         <v>123</v>
       </c>
-      <c r="P36">
-        <f t="shared" si="5"/>
+      <c r="P36" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q36">
+        <f>ROUND($AD$2/$AD$3*AI36,0)</f>
         <v>304</v>
       </c>
-      <c r="Q36">
-        <f t="shared" si="6"/>
+      <c r="R36">
+        <f>ROUND($AD$2/$AD$3*AJ36,0)</f>
         <v>360</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>120</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>121</v>
       </c>
-      <c r="T36">
-        <f t="shared" si="7"/>
+      <c r="U36" t="s">
+        <v>239</v>
+      </c>
+      <c r="V36">
+        <f>ROUND($AD$2/$AD$3*AM36,0)</f>
         <v>304</v>
       </c>
-      <c r="U36">
-        <f t="shared" si="8"/>
+      <c r="W36">
+        <f>ROUND($AD$2/$AD$3*AN36,0)</f>
         <v>169</v>
       </c>
-      <c r="V36" t="s">
+      <c r="X36" t="s">
         <v>167</v>
       </c>
-      <c r="AC36">
+      <c r="AE36">
         <v>450</v>
       </c>
-      <c r="AD36">
+      <c r="AF36">
         <v>430</v>
       </c>
-      <c r="AE36">
+      <c r="AG36">
         <v>555</v>
       </c>
-      <c r="AF36">
+      <c r="AH36">
         <v>270</v>
       </c>
-      <c r="AG36">
+      <c r="AI36">
         <v>270</v>
       </c>
-      <c r="AH36">
+      <c r="AJ36">
         <v>320</v>
       </c>
-      <c r="AK36">
+      <c r="AM36">
         <v>270</v>
       </c>
-      <c r="AL36">
+      <c r="AN36">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:40">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5229,19 +5626,19 @@
         <v>700</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE37,0)</f>
         <v>675</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF37,0)</f>
         <v>405</v>
       </c>
       <c r="L37">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG37,0)</f>
         <v>709</v>
       </c>
       <c r="M37">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH37,0)</f>
         <v>68</v>
       </c>
       <c r="N37" t="s">
@@ -5250,57 +5647,63 @@
       <c r="O37" t="s">
         <v>134</v>
       </c>
-      <c r="P37">
-        <f t="shared" si="5"/>
+      <c r="P37" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q37">
+        <f>ROUND($AD$2/$AD$3*AI37,0)</f>
         <v>304</v>
       </c>
-      <c r="Q37">
-        <f t="shared" si="6"/>
+      <c r="R37">
+        <f>ROUND($AD$2/$AD$3*AJ37,0)</f>
         <v>304</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>131</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>132</v>
       </c>
-      <c r="T37">
-        <f t="shared" si="7"/>
+      <c r="U37" t="s">
+        <v>240</v>
+      </c>
+      <c r="V37">
+        <f>ROUND($AD$2/$AD$3*AM37,0)</f>
         <v>304</v>
       </c>
-      <c r="U37">
-        <f t="shared" si="8"/>
+      <c r="W37">
+        <f>ROUND($AD$2/$AD$3*AN37,0)</f>
         <v>101</v>
       </c>
-      <c r="V37" t="s">
+      <c r="X37" t="s">
         <v>135</v>
       </c>
-      <c r="AC37">
+      <c r="AE37">
         <v>600</v>
       </c>
-      <c r="AD37">
+      <c r="AF37">
         <v>360</v>
       </c>
-      <c r="AE37">
+      <c r="AG37">
         <v>630</v>
       </c>
-      <c r="AF37">
+      <c r="AH37">
         <v>60</v>
       </c>
-      <c r="AG37">
+      <c r="AI37">
         <v>270</v>
       </c>
-      <c r="AH37">
+      <c r="AJ37">
         <v>270</v>
       </c>
-      <c r="AK37">
+      <c r="AM37">
         <v>270</v>
       </c>
-      <c r="AL37">
+      <c r="AN37">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:40">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5329,19 +5732,19 @@
         <v>485</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE38,0)</f>
         <v>371</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF38,0)</f>
         <v>56</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG38,0)</f>
         <v>101</v>
       </c>
       <c r="M38">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH38,0)</f>
         <v>450</v>
       </c>
       <c r="N38" t="s">
@@ -5350,57 +5753,63 @@
       <c r="O38" t="s">
         <v>81</v>
       </c>
-      <c r="P38">
-        <f t="shared" si="5"/>
+      <c r="P38" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q38">
+        <f>ROUND($AD$2/$AD$3*AI38,0)</f>
         <v>304</v>
       </c>
-      <c r="Q38">
-        <f t="shared" si="6"/>
+      <c r="R38">
+        <f>ROUND($AD$2/$AD$3*AJ38,0)</f>
         <v>90</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>137</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>138</v>
       </c>
-      <c r="T38">
-        <f t="shared" si="7"/>
+      <c r="U38" t="s">
+        <v>233</v>
+      </c>
+      <c r="V38">
+        <f>ROUND($AD$2/$AD$3*AM38,0)</f>
         <v>101</v>
       </c>
-      <c r="U38">
-        <f t="shared" si="8"/>
+      <c r="W38">
+        <f>ROUND($AD$2/$AD$3*AN38,0)</f>
         <v>338</v>
       </c>
-      <c r="V38" t="s">
+      <c r="X38" t="s">
         <v>171</v>
       </c>
-      <c r="AC38">
+      <c r="AE38">
         <v>330</v>
       </c>
-      <c r="AD38">
+      <c r="AF38">
         <v>50</v>
       </c>
-      <c r="AE38">
+      <c r="AG38">
         <v>90</v>
       </c>
-      <c r="AF38">
+      <c r="AH38">
         <v>400</v>
       </c>
-      <c r="AG38">
+      <c r="AI38">
         <v>270</v>
       </c>
-      <c r="AH38">
+      <c r="AJ38">
         <v>80</v>
       </c>
-      <c r="AK38">
+      <c r="AM38">
         <v>90</v>
       </c>
-      <c r="AL38">
+      <c r="AN38">
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:40">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5429,19 +5838,19 @@
         <v>500</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE39,0)</f>
         <v>191</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF39,0)</f>
         <v>56</v>
       </c>
       <c r="L39">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG39,0)</f>
         <v>248</v>
       </c>
       <c r="M39">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH39,0)</f>
         <v>461</v>
       </c>
       <c r="N39" t="s">
@@ -5450,57 +5859,63 @@
       <c r="O39" t="s">
         <v>143</v>
       </c>
-      <c r="P39">
-        <f t="shared" si="5"/>
+      <c r="P39" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q39">
+        <f>ROUND($AD$2/$AD$3*AI39,0)</f>
         <v>191</v>
       </c>
-      <c r="Q39">
-        <f t="shared" si="6"/>
+      <c r="R39">
+        <f>ROUND($AD$2/$AD$3*AJ39,0)</f>
         <v>90</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>144</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>145</v>
       </c>
-      <c r="T39">
-        <f t="shared" si="7"/>
+      <c r="U39" t="s">
+        <v>241</v>
+      </c>
+      <c r="V39">
+        <f>ROUND($AD$2/$AD$3*AM39,0)</f>
         <v>248</v>
       </c>
-      <c r="U39">
-        <f t="shared" si="8"/>
+      <c r="W39">
+        <f>ROUND($AD$2/$AD$3*AN39,0)</f>
         <v>315</v>
       </c>
-      <c r="V39" t="s">
+      <c r="X39" t="s">
         <v>174</v>
       </c>
-      <c r="AC39">
+      <c r="AE39">
         <v>170</v>
       </c>
-      <c r="AD39">
+      <c r="AF39">
         <v>50</v>
       </c>
-      <c r="AE39">
+      <c r="AG39">
         <v>220</v>
       </c>
-      <c r="AF39">
+      <c r="AH39">
         <v>410</v>
       </c>
-      <c r="AG39">
+      <c r="AI39">
         <v>170</v>
       </c>
-      <c r="AH39">
+      <c r="AJ39">
         <v>80</v>
       </c>
-      <c r="AK39">
+      <c r="AM39">
         <v>220</v>
       </c>
-      <c r="AL39">
+      <c r="AN39">
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:40">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5529,19 +5944,19 @@
         <v>625</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE40,0)</f>
         <v>338</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF40,0)</f>
         <v>56</v>
       </c>
       <c r="L40">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG40,0)</f>
         <v>349</v>
       </c>
       <c r="M40">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH40,0)</f>
         <v>450</v>
       </c>
       <c r="N40" t="s">
@@ -5550,57 +5965,63 @@
       <c r="O40" t="s">
         <v>145</v>
       </c>
-      <c r="P40">
-        <f t="shared" si="5"/>
+      <c r="P40" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q40">
+        <f>ROUND($AD$2/$AD$3*AI40,0)</f>
         <v>304</v>
       </c>
-      <c r="Q40">
-        <f t="shared" si="6"/>
+      <c r="R40">
+        <f>ROUND($AD$2/$AD$3*AJ40,0)</f>
         <v>90</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>148</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>149</v>
       </c>
-      <c r="T40">
-        <f t="shared" si="7"/>
+      <c r="U40" t="s">
+        <v>235</v>
+      </c>
+      <c r="V40">
+        <f>ROUND($AD$2/$AD$3*AM40,0)</f>
         <v>304</v>
       </c>
-      <c r="U40">
-        <f t="shared" si="8"/>
+      <c r="W40">
+        <f>ROUND($AD$2/$AD$3*AN40,0)</f>
         <v>315</v>
       </c>
-      <c r="V40" t="s">
+      <c r="X40" t="s">
         <v>150</v>
       </c>
-      <c r="AC40">
+      <c r="AE40">
         <v>300</v>
       </c>
-      <c r="AD40">
+      <c r="AF40">
         <v>50</v>
       </c>
-      <c r="AE40">
+      <c r="AG40">
         <v>310</v>
       </c>
-      <c r="AF40">
+      <c r="AH40">
         <v>400</v>
       </c>
-      <c r="AG40">
+      <c r="AI40">
         <v>270</v>
       </c>
-      <c r="AH40">
+      <c r="AJ40">
         <v>80</v>
       </c>
-      <c r="AK40">
+      <c r="AM40">
         <v>270</v>
       </c>
-      <c r="AL40">
+      <c r="AN40">
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:40">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5629,19 +6050,19 @@
         <v>805</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f>ROUND($AD$2/$AD$3*AE41,0)</f>
         <v>242</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
+        <f>ROUND($AD$2/$AD$3*AF41,0)</f>
         <v>73</v>
       </c>
       <c r="L41">
-        <f t="shared" si="3"/>
+        <f>ROUND($AD$2/$AD$3*AG41,0)</f>
         <v>259</v>
       </c>
       <c r="M41">
-        <f t="shared" si="4"/>
+        <f>ROUND($AD$2/$AD$3*AH41,0)</f>
         <v>394</v>
       </c>
       <c r="N41" t="s">
@@ -5650,54 +6071,380 @@
       <c r="O41" t="s">
         <v>154</v>
       </c>
-      <c r="P41">
-        <f t="shared" si="5"/>
+      <c r="P41" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q41">
+        <f>ROUND($AD$2/$AD$3*AI41,0)</f>
         <v>242</v>
       </c>
-      <c r="Q41">
-        <f t="shared" si="6"/>
+      <c r="R41">
+        <f>ROUND($AD$2/$AD$3*AJ41,0)</f>
         <v>107</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>155</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>156</v>
       </c>
-      <c r="T41">
-        <f t="shared" si="7"/>
+      <c r="U41" t="s">
+        <v>236</v>
+      </c>
+      <c r="V41">
+        <f>ROUND($AD$2/$AD$3*AM41,0)</f>
         <v>259</v>
       </c>
-      <c r="U41">
-        <f t="shared" si="8"/>
+      <c r="W41">
+        <f>ROUND($AD$2/$AD$3*AN41,0)</f>
         <v>293</v>
       </c>
-      <c r="V41" t="s">
+      <c r="X41" t="s">
         <v>178</v>
       </c>
-      <c r="AC41">
+      <c r="AE41">
         <v>215</v>
       </c>
-      <c r="AD41">
+      <c r="AF41">
         <v>65</v>
       </c>
-      <c r="AE41">
+      <c r="AG41">
         <v>230</v>
       </c>
-      <c r="AF41">
+      <c r="AH41">
         <v>350</v>
       </c>
-      <c r="AG41">
+      <c r="AI41">
         <v>215</v>
       </c>
-      <c r="AH41">
+      <c r="AJ41">
         <v>95</v>
       </c>
-      <c r="AK41">
+      <c r="AM41">
         <v>230</v>
       </c>
-      <c r="AL41">
+      <c r="AN41">
         <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40">
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10">
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10">
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10">
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10">
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10">
+      <c r="I53">
+        <v>6</v>
+      </c>
+      <c r="J53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10">
+      <c r="I54">
+        <v>7</v>
+      </c>
+      <c r="J54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="9:10">
+      <c r="I55">
+        <v>8</v>
+      </c>
+      <c r="J55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="9:10">
+      <c r="I56">
+        <v>9</v>
+      </c>
+      <c r="J56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="9:10">
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="9:10">
+      <c r="I58">
+        <v>11</v>
+      </c>
+      <c r="J58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="9:10">
+      <c r="I59">
+        <v>12</v>
+      </c>
+      <c r="J59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10">
+      <c r="I60">
+        <v>13</v>
+      </c>
+      <c r="J60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="9:10">
+      <c r="I61">
+        <v>14</v>
+      </c>
+      <c r="J61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="9:10">
+      <c r="I62">
+        <v>15</v>
+      </c>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="9:10">
+      <c r="I63">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="9:10">
+      <c r="I64">
+        <v>17</v>
+      </c>
+      <c r="J64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="9:10">
+      <c r="I65">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="9:10">
+      <c r="I66">
+        <v>19</v>
+      </c>
+      <c r="J66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="9:10">
+      <c r="I67">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="9:10">
+      <c r="I68">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="9:10">
+      <c r="I69">
+        <v>22</v>
+      </c>
+      <c r="J69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="9:10">
+      <c r="I70">
+        <v>23</v>
+      </c>
+      <c r="J70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="9:10">
+      <c r="I71">
+        <v>24</v>
+      </c>
+      <c r="J71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="9:10">
+      <c r="I72">
+        <v>25</v>
+      </c>
+      <c r="J72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="9:10">
+      <c r="I73">
+        <v>26</v>
+      </c>
+      <c r="J73" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="9:10">
+      <c r="I74">
+        <v>27</v>
+      </c>
+      <c r="J74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="9:10">
+      <c r="I75">
+        <v>28</v>
+      </c>
+      <c r="J75" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="9:10">
+      <c r="I76">
+        <v>29</v>
+      </c>
+      <c r="J76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="9:10">
+      <c r="I77">
+        <v>30</v>
+      </c>
+      <c r="J77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="9:10">
+      <c r="I78">
+        <v>31</v>
+      </c>
+      <c r="J78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="9:10">
+      <c r="I79">
+        <v>32</v>
+      </c>
+      <c r="J79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="9:10">
+      <c r="I80">
+        <v>33</v>
+      </c>
+      <c r="J80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="9:10">
+      <c r="I81">
+        <v>34</v>
+      </c>
+      <c r="J81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="9:10">
+      <c r="I82">
+        <v>35</v>
+      </c>
+      <c r="J82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="9:10">
+      <c r="I83">
+        <v>36</v>
+      </c>
+      <c r="J83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="9:10">
+      <c r="I84">
+        <v>37</v>
+      </c>
+      <c r="J84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="9:10">
+      <c r="I85">
+        <v>38</v>
+      </c>
+      <c r="J85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="9:10">
+      <c r="I86">
+        <v>39</v>
+      </c>
+      <c r="J86" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="9:10">
+      <c r="I87">
+        <v>40</v>
+      </c>
+      <c r="J87" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
